--- a/data/input/data.input2.xlsx
+++ b/data/input/data.input2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\r3PG\vignette_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3PG\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B873946-C3FB-4E9A-B725-B5C3296FA2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFAE639-DAA5-4B1B-9835-58556C1DB861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="675" windowWidth="29745" windowHeight="18960" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView xWindow="29310" yWindow="960" windowWidth="41385" windowHeight="18225" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="site" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="thinning" sheetId="6" r:id="rId7"/>
     <sheet name="sizeDist" sheetId="7" r:id="rId8"/>
     <sheet name="parameters" sheetId="1" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="261">
   <si>
     <t>pFS2</t>
   </si>
@@ -480,6 +481,394 @@
   </si>
   <si>
     <t>Pinus contorta</t>
+  </si>
+  <si>
+    <t>Meaning/comments</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Black Spruce</t>
+  </si>
+  <si>
+    <t>Lodgepole Pine</t>
+  </si>
+  <si>
+    <t>Jack Pine</t>
+  </si>
+  <si>
+    <t>Biomass partitioning and turnover</t>
+  </si>
+  <si>
+    <t>Allometric relationships &amp; partitioning</t>
+  </si>
+  <si>
+    <t>Foliage:stem partitioning ratio @ D=2 cm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Foliage:stem partitioning ratio @ D=20 cm</t>
+  </si>
+  <si>
+    <t>Constant in the stem mass v. diam. relationship</t>
+  </si>
+  <si>
+    <t>aS</t>
+  </si>
+  <si>
+    <t>Power in the stem mass v. diam. relationship</t>
+  </si>
+  <si>
+    <t>nS</t>
+  </si>
+  <si>
+    <t>Maximum fraction of NPP to roots</t>
+  </si>
+  <si>
+    <t>Minimum fraction of NPP to roots</t>
+  </si>
+  <si>
+    <t>Litterfall &amp; root turnover</t>
+  </si>
+  <si>
+    <t>Maximum litterfall rate</t>
+  </si>
+  <si>
+    <t>gammaFx</t>
+  </si>
+  <si>
+    <t>1/month</t>
+  </si>
+  <si>
+    <t>Litterfall rate at t = 0</t>
+  </si>
+  <si>
+    <t>Age at which litterfall rate has median value</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Average monthly root turnover rate</t>
+  </si>
+  <si>
+    <t>NPP &amp; conductance modifiers</t>
+  </si>
+  <si>
+    <t>Temperature modifier (fT)</t>
+  </si>
+  <si>
+    <t>Minimum temperature for growth</t>
+  </si>
+  <si>
+    <t>deg. C</t>
+  </si>
+  <si>
+    <t>Optimum temperature for growth</t>
+  </si>
+  <si>
+    <t>Maximum temperature for growth</t>
+  </si>
+  <si>
+    <t>Frost modifier (fFRost)</t>
+  </si>
+  <si>
+    <t>Days production lost per frost day</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Soil water modifier (fSW)</t>
+  </si>
+  <si>
+    <r>
+      <t>Moisture ratio deficit for f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.5 </t>
+    </r>
+  </si>
+  <si>
+    <t>Power of moisture ratio deficit</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 modifier (fCO2)</t>
+  </si>
+  <si>
+    <t>Assimialtion enhancement factor at 700 ppm</t>
+  </si>
+  <si>
+    <t>Canopy conductance enhancement factor at 700 ppm</t>
+  </si>
+  <si>
+    <t>Fertitlity effects</t>
+  </si>
+  <si>
+    <t>Value of 'm' when FR = 0</t>
+  </si>
+  <si>
+    <t>Value of 'fNutr' when FR = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power of (1-FR) in 'fNutr' </t>
+  </si>
+  <si>
+    <t>Age modifier (fAge)</t>
+  </si>
+  <si>
+    <t>Maximum stand age used in age modifier</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Power of relative age in function for fAge</t>
+  </si>
+  <si>
+    <t>Relative age to give fAge = 0.5</t>
+  </si>
+  <si>
+    <t>Stem mortality &amp; self-thinning</t>
+  </si>
+  <si>
+    <t>Mortality rate for large t</t>
+  </si>
+  <si>
+    <t>gammaNx</t>
+  </si>
+  <si>
+    <t>%/year</t>
+  </si>
+  <si>
+    <t>Seedling mortality rate (t = 0)</t>
+  </si>
+  <si>
+    <t>Age at which mortality rate has median value</t>
+  </si>
+  <si>
+    <t>Shape of mortality response</t>
+  </si>
+  <si>
+    <t>Max. stem mass per tree @ 1000 trees/hectare</t>
+  </si>
+  <si>
+    <t>kg/tree</t>
+  </si>
+  <si>
+    <t>Power in self-thinning rule</t>
+  </si>
+  <si>
+    <t>Fraction mean single-tree foliage biomass lost per dead tree</t>
+  </si>
+  <si>
+    <t>Fraction mean single-tree root biomass lost per dead tree</t>
+  </si>
+  <si>
+    <t>Fraction mean single-tree stem biomass lost per dead tree</t>
+  </si>
+  <si>
+    <t>Canopy structure and processes</t>
+  </si>
+  <si>
+    <t>Specific leaf area</t>
+  </si>
+  <si>
+    <t>Specific leaf area at age 0</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/kg</t>
+    </r>
+  </si>
+  <si>
+    <t>Specific leaf area for mature leaves</t>
+  </si>
+  <si>
+    <t>Age at which specific leaf area = (SLA0+SLA1)/2</t>
+  </si>
+  <si>
+    <t>Light interception</t>
+  </si>
+  <si>
+    <t>Extinction coefficient for absorption of PAR by canopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age at canopy cover </t>
+  </si>
+  <si>
+    <t>Maximum proportion of rainfall evaporated from canopy</t>
+  </si>
+  <si>
+    <t>LAI for maximum rainfall interception</t>
+  </si>
+  <si>
+    <t>Production and respiration</t>
+  </si>
+  <si>
+    <t>Canopy quantum efficiency</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>molC/molPAR</t>
+  </si>
+  <si>
+    <t>Ratio NPP/GPP</t>
+  </si>
+  <si>
+    <t>Conductance</t>
+  </si>
+  <si>
+    <t>Minimum canopy conductance</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Maximum canopy conductance</t>
+  </si>
+  <si>
+    <t>LAI for maximum canopy conductance</t>
+  </si>
+  <si>
+    <t>Defines stomatal response to VPD</t>
+  </si>
+  <si>
+    <t>1/mBar</t>
+  </si>
+  <si>
+    <t>Canopy boundary layer conductance</t>
+  </si>
+  <si>
+    <t>Wood and stand properties</t>
+  </si>
+  <si>
+    <t>Branch and bark fraction (fracBB)</t>
+  </si>
+  <si>
+    <t>Branch and bark fraction at age 0</t>
+  </si>
+  <si>
+    <t>Branch and bark fraction for mature stands</t>
+  </si>
+  <si>
+    <t>Age at which fracBB = (fracBB0+fracBB1)/2</t>
+  </si>
+  <si>
+    <t>Basic Density</t>
+  </si>
+  <si>
+    <t>Minimum basic density - for young trees</t>
+  </si>
+  <si>
+    <t>t/m3</t>
+  </si>
+  <si>
+    <t>Maximum basic density - for older trees</t>
+  </si>
+  <si>
+    <t>Age at which rho = (rhoMin+rhoMax)/2</t>
+  </si>
+  <si>
+    <t>Stem height</t>
+  </si>
+  <si>
+    <t>Constant in the stem height relationship</t>
+  </si>
+  <si>
+    <t>Power of DBH in the stem height relationship</t>
+  </si>
+  <si>
+    <t>Power of stocking in the stem height relationship</t>
+  </si>
+  <si>
+    <t>nHN</t>
+  </si>
+  <si>
+    <t>Stem volume</t>
+  </si>
+  <si>
+    <t>Constant in the stem volume relationship</t>
+  </si>
+  <si>
+    <t>Power of DBH in the stem volume relationship</t>
+  </si>
+  <si>
+    <t>Power of stocking in the stem volume relationship</t>
+  </si>
+  <si>
+    <t>nVN</t>
+  </si>
+  <si>
+    <t>Conversion factors</t>
+  </si>
+  <si>
+    <t>Intercept of net v. solar radiation relationship</t>
+  </si>
+  <si>
+    <t>W/m2</t>
+  </si>
+  <si>
+    <t>Slope of net v. solar radiation relationship</t>
+  </si>
+  <si>
+    <t>Molecular weight of dry matter</t>
+  </si>
+  <si>
+    <t>gDM/mol</t>
+  </si>
+  <si>
+    <t>Conversion of solar radiation to PAR</t>
+  </si>
+  <si>
+    <t>mol/MJ</t>
+  </si>
+  <si>
+    <t>Blank Tree</t>
   </si>
 </sst>
 </file>
@@ -489,7 +878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -540,6 +929,57 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -556,13 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +1051,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -638,11 +1078,30 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,26 +1425,26 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.84765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.34765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.34765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.34765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.84765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.84765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -1011,7 +1470,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57.083500000000001</v>
       </c>
@@ -1035,6 +1494,1524 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E74FD33-C23F-46AD-A185-5BD3109FBC3F}">
+  <dimension ref="A1:F86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:F86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1.53</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.1084</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="F6" s="12">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.19</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3.282</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3.282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="12">
+        <v>36</v>
+      </c>
+      <c r="E13" s="12">
+        <v>36</v>
+      </c>
+      <c r="F13" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="12">
+        <v>-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-7</v>
+      </c>
+      <c r="F17" s="12">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="12">
+        <v>15</v>
+      </c>
+      <c r="E18" s="12">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="12">
+        <v>35</v>
+      </c>
+      <c r="E19" s="12">
+        <v>30</v>
+      </c>
+      <c r="F19" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="12">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12">
+        <v>9</v>
+      </c>
+      <c r="F24" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="12">
+        <v>200</v>
+      </c>
+      <c r="E33" s="12">
+        <v>150</v>
+      </c>
+      <c r="F33" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="12">
+        <v>4</v>
+      </c>
+      <c r="E34" s="12">
+        <v>4</v>
+      </c>
+      <c r="F34" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="12">
+        <v>300</v>
+      </c>
+      <c r="E41" s="12">
+        <v>350</v>
+      </c>
+      <c r="F41" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="12">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12">
+        <v>5.79</v>
+      </c>
+      <c r="F48" s="12">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="E49" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="F49" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="12">
+        <v>15</v>
+      </c>
+      <c r="E50" s="12">
+        <v>2</v>
+      </c>
+      <c r="F50" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="12">
+        <v>18</v>
+      </c>
+      <c r="E53" s="12">
+        <v>20</v>
+      </c>
+      <c r="F53" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="12">
+        <v>5</v>
+      </c>
+      <c r="E55" s="12">
+        <v>5</v>
+      </c>
+      <c r="F55" s="12">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="E62" s="12">
+        <v>3</v>
+      </c>
+      <c r="F62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E63" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F63" s="12">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2</v>
+      </c>
+      <c r="E69" s="12">
+        <v>5</v>
+      </c>
+      <c r="F69" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="12">
+        <v>4</v>
+      </c>
+      <c r="E73" s="12">
+        <v>4</v>
+      </c>
+      <c r="F73" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="12">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F75" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F76" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="12">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="12">
+        <v>-90</v>
+      </c>
+      <c r="E83" s="12">
+        <v>-90</v>
+      </c>
+      <c r="F83" s="12">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F84" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="12">
+        <v>24</v>
+      </c>
+      <c r="E85" s="12">
+        <v>24</v>
+      </c>
+      <c r="F85" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E86" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F86" s="12">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1050,12 +3027,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>121</v>
       </c>
@@ -1078,7 +3055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -1101,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,12 +3092,12 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>121</v>
       </c>
@@ -1143,7 +3120,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -1166,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1180,14 +3157,14 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>121</v>
       </c>
@@ -1210,7 +3187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1246,9 +3223,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -1271,7 +3248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -1294,7 +3271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -1317,7 +3294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -1340,7 +3317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -1363,7 +3340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1386,7 +3363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1409,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1432,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1455,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -1478,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2001</v>
       </c>
@@ -1501,7 +3478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -1524,7 +3501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -1547,7 +3524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -1570,7 +3547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -1593,7 +3570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -1616,7 +3593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -1639,7 +3616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -1662,7 +3639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -1685,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -1708,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -1731,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -1754,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -1777,7 +3754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -1800,7 +3777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1823,7 +3800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -1846,7 +3823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2003</v>
       </c>
@@ -1869,7 +3846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1892,7 +3869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2003</v>
       </c>
@@ -1915,7 +3892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2003</v>
       </c>
@@ -1938,7 +3915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2003</v>
       </c>
@@ -1961,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2003</v>
       </c>
@@ -1984,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2003</v>
       </c>
@@ -2007,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2003</v>
       </c>
@@ -2030,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2003</v>
       </c>
@@ -2053,7 +4030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2003</v>
       </c>
@@ -2076,7 +4053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2003</v>
       </c>
@@ -2099,7 +4076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2004</v>
       </c>
@@ -2122,7 +4099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -2145,7 +4122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2004</v>
       </c>
@@ -2168,7 +4145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2004</v>
       </c>
@@ -2191,7 +4168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2004</v>
       </c>
@@ -2214,7 +4191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2004</v>
       </c>
@@ -2237,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2004</v>
       </c>
@@ -2260,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2004</v>
       </c>
@@ -2283,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2004</v>
       </c>
@@ -2306,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2004</v>
       </c>
@@ -2329,7 +4306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2004</v>
       </c>
@@ -2352,7 +4329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2004</v>
       </c>
@@ -2375,7 +4352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2005</v>
       </c>
@@ -2398,7 +4375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2005</v>
       </c>
@@ -2421,7 +4398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2005</v>
       </c>
@@ -2444,7 +4421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2005</v>
       </c>
@@ -2467,7 +4444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2005</v>
       </c>
@@ -2490,7 +4467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2005</v>
       </c>
@@ -2513,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2005</v>
       </c>
@@ -2536,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2005</v>
       </c>
@@ -2559,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -2582,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -2605,7 +4582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2005</v>
       </c>
@@ -2628,7 +4605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2005</v>
       </c>
@@ -2651,7 +4628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -2674,7 +4651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2006</v>
       </c>
@@ -2697,7 +4674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2006</v>
       </c>
@@ -2720,7 +4697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2006</v>
       </c>
@@ -2743,7 +4720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2006</v>
       </c>
@@ -2766,7 +4743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2006</v>
       </c>
@@ -2789,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2006</v>
       </c>
@@ -2812,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2006</v>
       </c>
@@ -2835,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2006</v>
       </c>
@@ -2858,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2006</v>
       </c>
@@ -2881,7 +4858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2006</v>
       </c>
@@ -2904,7 +4881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2006</v>
       </c>
@@ -2927,7 +4904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2007</v>
       </c>
@@ -2950,7 +4927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2007</v>
       </c>
@@ -2973,7 +4950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2007</v>
       </c>
@@ -2996,7 +4973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2007</v>
       </c>
@@ -3019,7 +4996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2007</v>
       </c>
@@ -3042,7 +5019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2007</v>
       </c>
@@ -3065,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2007</v>
       </c>
@@ -3088,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2007</v>
       </c>
@@ -3111,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2007</v>
       </c>
@@ -3134,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2007</v>
       </c>
@@ -3157,7 +5134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2007</v>
       </c>
@@ -3180,7 +5157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2007</v>
       </c>
@@ -3203,7 +5180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2008</v>
       </c>
@@ -3226,7 +5203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2008</v>
       </c>
@@ -3249,7 +5226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2008</v>
       </c>
@@ -3272,7 +5249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2008</v>
       </c>
@@ -3295,7 +5272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2008</v>
       </c>
@@ -3318,7 +5295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2008</v>
       </c>
@@ -3341,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2008</v>
       </c>
@@ -3364,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2008</v>
       </c>
@@ -3387,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2008</v>
       </c>
@@ -3410,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2008</v>
       </c>
@@ -3433,7 +5410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2008</v>
       </c>
@@ -3456,7 +5433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2008</v>
       </c>
@@ -3479,7 +5456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2009</v>
       </c>
@@ -3502,7 +5479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2009</v>
       </c>
@@ -3525,7 +5502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2009</v>
       </c>
@@ -3548,7 +5525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2009</v>
       </c>
@@ -3571,7 +5548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2009</v>
       </c>
@@ -3594,7 +5571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2009</v>
       </c>
@@ -3617,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2009</v>
       </c>
@@ -3640,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2009</v>
       </c>
@@ -3663,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2009</v>
       </c>
@@ -3686,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2009</v>
       </c>
@@ -3709,7 +5686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2009</v>
       </c>
@@ -3732,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2009</v>
       </c>
@@ -3755,7 +5732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2010</v>
       </c>
@@ -3778,7 +5755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2010</v>
       </c>
@@ -3801,7 +5778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2010</v>
       </c>
@@ -3824,7 +5801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2010</v>
       </c>
@@ -3847,7 +5824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2010</v>
       </c>
@@ -3870,7 +5847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2010</v>
       </c>
@@ -3893,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2010</v>
       </c>
@@ -3916,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2010</v>
       </c>
@@ -3939,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2010</v>
       </c>
@@ -3962,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2010</v>
       </c>
@@ -3985,7 +5962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2010</v>
       </c>
@@ -4008,7 +5985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2010</v>
       </c>
@@ -4031,7 +6008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2011</v>
       </c>
@@ -4054,7 +6031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2011</v>
       </c>
@@ -4077,7 +6054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2011</v>
       </c>
@@ -4100,7 +6077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2011</v>
       </c>
@@ -4123,7 +6100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2011</v>
       </c>
@@ -4146,7 +6123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2011</v>
       </c>
@@ -4169,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2011</v>
       </c>
@@ -4192,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2011</v>
       </c>
@@ -4215,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2011</v>
       </c>
@@ -4238,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2011</v>
       </c>
@@ -4261,7 +6238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2011</v>
       </c>
@@ -4284,7 +6261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2011</v>
       </c>
@@ -4307,7 +6284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2012</v>
       </c>
@@ -4330,7 +6307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2012</v>
       </c>
@@ -4353,7 +6330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2012</v>
       </c>
@@ -4376,7 +6353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2012</v>
       </c>
@@ -4399,7 +6376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2012</v>
       </c>
@@ -4422,7 +6399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2012</v>
       </c>
@@ -4445,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2012</v>
       </c>
@@ -4468,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2012</v>
       </c>
@@ -4491,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2012</v>
       </c>
@@ -4514,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2012</v>
       </c>
@@ -4537,7 +6514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2012</v>
       </c>
@@ -4560,7 +6537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2012</v>
       </c>
@@ -4583,7 +6560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2013</v>
       </c>
@@ -4606,7 +6583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2013</v>
       </c>
@@ -4629,7 +6606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2013</v>
       </c>
@@ -4652,7 +6629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2013</v>
       </c>
@@ -4675,7 +6652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2013</v>
       </c>
@@ -4698,7 +6675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2013</v>
       </c>
@@ -4721,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2013</v>
       </c>
@@ -4744,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2013</v>
       </c>
@@ -4767,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2013</v>
       </c>
@@ -4790,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2013</v>
       </c>
@@ -4813,7 +6790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2013</v>
       </c>
@@ -4836,7 +6813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2013</v>
       </c>
@@ -4859,7 +6836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2014</v>
       </c>
@@ -4882,7 +6859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2014</v>
       </c>
@@ -4905,7 +6882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2014</v>
       </c>
@@ -4928,7 +6905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2014</v>
       </c>
@@ -4951,7 +6928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2014</v>
       </c>
@@ -4974,7 +6951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -4997,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2014</v>
       </c>
@@ -5020,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2014</v>
       </c>
@@ -5043,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2014</v>
       </c>
@@ -5066,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2014</v>
       </c>
@@ -5089,7 +7066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2014</v>
       </c>
@@ -5112,7 +7089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2014</v>
       </c>
@@ -5148,9 +7125,9 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5170,7 +7147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5190,7 +7167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5210,7 +7187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5230,7 +7207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5250,7 +7227,7 @@
         <v>24.85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5270,7 +7247,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5290,7 +7267,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5310,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5330,7 +7307,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5350,7 +7327,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5370,7 +7347,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5390,7 +7367,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5423,17 +7400,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.34765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.34765625" customWidth="1"/>
-    <col min="5" max="5" width="6.84765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>121</v>
       </c>
@@ -5453,7 +7430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -5480,13 +7457,13 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.34765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -5494,7 +7471,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -5502,7 +7479,7 @@
         <v>0.19438798391558637</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5510,7 +7487,7 @@
         <v>1.2246192</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -5518,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -5526,7 +7503,7 @@
         <v>0.12776940000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5534,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -5542,7 +7519,7 @@
         <v>0.78810101950457778</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -5550,7 +7527,7 @@
         <v>0.31619239999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -5558,7 +7535,7 @@
         <v>1.6142477</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -5566,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5574,7 +7551,7 @@
         <v>-0.11702410000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -5582,7 +7559,7 @@
         <v>1.6360918833167544</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -5590,7 +7567,7 @@
         <v>0.50466180000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -5598,7 +7575,7 @@
         <v>-0.62634160000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -5606,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -5614,7 +7591,7 @@
         <v>4.5786399999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -5622,7 +7599,7 @@
         <v>2.2094402126214635E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -5630,7 +7607,7 @@
         <v>2.6048110000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -5638,7 +7615,7 @@
         <v>-1.8148740000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -5646,7 +7623,7 @@
         <v>0.32097799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -5654,7 +7631,7 @@
         <v>8.9823E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -5662,7 +7639,7 @@
         <v>0.64586569454210141</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -5670,7 +7647,7 @@
         <v>0.26870719999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -5678,7 +7655,7 @@
         <v>1.7403652999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -5686,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -5694,7 +7671,7 @@
         <v>-0.14293220000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -5702,7 +7679,7 @@
         <v>0.14272679508242667</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -5710,7 +7687,7 @@
         <v>1.028025</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -5718,7 +7695,7 @@
         <v>-3.4997509999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -5726,7 +7703,7 @@
         <v>0.453181</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -5741,46 +7718,52 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003E9A71-E1A2-2845-B4A9-990606FB2D91}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.84765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5796,14 +7779,20 @@
       <c r="E2">
         <v>0.8</v>
       </c>
-      <c r="F2" s="10">
-        <v>0.76049999999999995</v>
+      <c r="F2" s="19">
+        <v>1.53</v>
       </c>
       <c r="G2">
+        <v>0.61</v>
+      </c>
+      <c r="H2">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5819,14 +7808,20 @@
       <c r="E3">
         <v>0.4</v>
       </c>
-      <c r="F3" s="10">
-        <v>0.32829999999999998</v>
+      <c r="F3" s="19">
+        <v>0.55000000000000004</v>
       </c>
       <c r="G3">
+        <v>0.22</v>
+      </c>
+      <c r="H3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5842,14 +7837,20 @@
       <c r="E4">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="F4" s="10">
-        <v>6.6E-3</v>
+      <c r="F4" s="19">
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="G4">
+        <v>0.1084</v>
+      </c>
+      <c r="H4">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5865,14 +7866,20 @@
       <c r="E5">
         <v>2.72</v>
       </c>
-      <c r="F5" s="10">
-        <v>3.1831999999999998</v>
+      <c r="F5" s="19">
+        <v>3.282</v>
       </c>
       <c r="G5">
+        <v>2.19</v>
+      </c>
+      <c r="H5">
         <v>3.282</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I5">
+        <v>3.282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5888,14 +7895,20 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="19">
         <v>0.8</v>
       </c>
       <c r="G6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5911,14 +7924,20 @@
       <c r="E7">
         <v>0.25</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="19">
         <v>0.25</v>
       </c>
       <c r="G7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5934,14 +7953,20 @@
       <c r="E8">
         <v>0.03</v>
       </c>
-      <c r="F8" s="12">
-        <v>0.03</v>
+      <c r="F8" s="19">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G8">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H8">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I8">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5957,14 +7982,20 @@
       <c r="E9">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
         <v>1E-3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5980,14 +8011,20 @@
       <c r="E10">
         <v>36</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="19">
+        <v>120</v>
+      </c>
+      <c r="G10">
         <v>36</v>
       </c>
-      <c r="G10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H10">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6003,30 +8040,38 @@
       <c r="E11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6042,14 +8087,20 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="F14" s="19">
+        <v>38</v>
       </c>
       <c r="G14">
+        <v>-2</v>
+      </c>
+      <c r="H14">
         <v>-7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I14">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6065,14 +8116,20 @@
       <c r="E15">
         <v>20</v>
       </c>
-      <c r="F15">
-        <v>20</v>
+      <c r="F15" s="19">
+        <v>39</v>
       </c>
       <c r="G15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6088,14 +8145,20 @@
       <c r="E16">
         <v>32</v>
       </c>
-      <c r="F16">
-        <v>32</v>
+      <c r="F16" s="19">
+        <v>40</v>
       </c>
       <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6111,14 +8174,20 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6134,14 +8203,20 @@
       <c r="E18">
         <v>0.7</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G18">
         <v>0.7</v>
       </c>
-      <c r="G18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H18">
+        <v>0.7</v>
+      </c>
+      <c r="I18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6157,14 +8232,20 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>9</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6177,14 +8258,20 @@
       <c r="E20">
         <v>1.4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="19">
         <v>1.4</v>
       </c>
       <c r="G20">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H20">
+        <v>1.4</v>
+      </c>
+      <c r="I20">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6197,14 +8284,20 @@
       <c r="E21">
         <v>0.7</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="19">
         <v>0.7</v>
       </c>
       <c r="G21">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H21">
+        <v>0.7</v>
+      </c>
+      <c r="I21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6220,14 +8313,20 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="19">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6243,14 +8342,20 @@
       <c r="E23">
         <v>0.6</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="19">
         <v>0.6</v>
       </c>
       <c r="G23">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6266,14 +8371,20 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="19">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6289,14 +8400,20 @@
       <c r="E25">
         <v>50</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="19">
         <v>150</v>
       </c>
       <c r="G25">
+        <v>200</v>
+      </c>
+      <c r="H25">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6312,14 +8429,20 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="19">
         <v>4</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6335,14 +8458,20 @@
       <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="19">
         <v>0.95</v>
       </c>
       <c r="G27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H27">
+        <v>0.95</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6355,14 +8484,20 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="19">
         <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6375,14 +8510,20 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="19">
         <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6395,14 +8536,20 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="19">
         <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6415,14 +8562,20 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6438,14 +8591,20 @@
       <c r="E32">
         <v>160</v>
       </c>
-      <c r="F32">
-        <v>1000</v>
+      <c r="F32" s="19">
+        <v>220</v>
       </c>
       <c r="G32">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+        <v>300</v>
+      </c>
+      <c r="H32">
+        <v>350</v>
+      </c>
+      <c r="I32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6461,14 +8620,20 @@
       <c r="E33">
         <v>1.5</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="19">
         <v>1.5</v>
       </c>
       <c r="G33">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H33">
+        <v>1.5</v>
+      </c>
+      <c r="I33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -6484,14 +8649,20 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>0</v>
+      <c r="F34" s="19">
+        <v>1</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6507,14 +8678,20 @@
       <c r="E35">
         <v>0.2</v>
       </c>
-      <c r="F35">
-        <v>0</v>
+      <c r="F35" s="19">
+        <v>1</v>
       </c>
       <c r="G35">
+        <v>0.2</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -6530,14 +8707,20 @@
       <c r="E36">
         <v>0.2</v>
       </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="F36" s="19">
+        <v>1</v>
       </c>
       <c r="G36">
+        <v>0.2</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -6553,14 +8736,20 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37">
-        <v>5</v>
+      <c r="F37" s="19">
+        <v>5.79</v>
       </c>
       <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I37">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6576,14 +8765,20 @@
       <c r="E38">
         <v>5</v>
       </c>
-      <c r="F38">
-        <v>5</v>
+      <c r="F38" s="19">
+        <v>3.1</v>
       </c>
       <c r="G38">
+        <v>4.8</v>
+      </c>
+      <c r="H38">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6599,14 +8794,20 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="19">
         <v>2</v>
       </c>
       <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -6622,14 +8823,20 @@
       <c r="E40">
         <v>0.5</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G40">
         <v>0.5</v>
       </c>
-      <c r="G40">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6645,14 +8852,20 @@
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41">
-        <v>11</v>
+      <c r="F41" s="19">
+        <v>20</v>
       </c>
       <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6668,14 +8881,20 @@
       <c r="E42">
         <v>0.15</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="19">
         <v>0.15</v>
       </c>
       <c r="G42">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H42">
+        <v>0.15</v>
+      </c>
+      <c r="I42">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6691,14 +8910,20 @@
       <c r="E43">
         <v>5</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
         <v>3.1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6708,8 +8933,9 @@
       <c r="C44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6725,14 +8951,20 @@
       <c r="E45">
         <v>0.05</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="19">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G45">
         <v>0.03</v>
       </c>
-      <c r="G45">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H45">
+        <v>0.04</v>
+      </c>
+      <c r="I45">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6748,14 +8980,20 @@
       <c r="E46">
         <v>0.47</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="19">
         <v>0.47</v>
       </c>
       <c r="G46">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H46">
+        <v>0.47</v>
+      </c>
+      <c r="I46">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6771,14 +9009,20 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="19">
         <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6794,14 +9038,20 @@
       <c r="E48">
         <v>0.02</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="19">
         <v>0.02</v>
       </c>
       <c r="G48">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H48">
+        <v>0.02</v>
+      </c>
+      <c r="I48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6817,14 +9067,20 @@
       <c r="E49">
         <v>3.33</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="19">
+        <v>3</v>
+      </c>
+      <c r="G49">
         <v>3.33</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6840,14 +9096,20 @@
       <c r="E50">
         <v>0.05</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G50">
         <v>0.05</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I50">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6863,46 +9125,56 @@
       <c r="E51">
         <v>0.2</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="19">
         <v>0.2</v>
       </c>
       <c r="G51">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6918,14 +9190,20 @@
       <c r="E56">
         <v>0.5</v>
       </c>
-      <c r="F56">
-        <v>0</v>
+      <c r="F56" s="19">
+        <v>0.5</v>
       </c>
       <c r="G56">
+        <v>0.75</v>
+      </c>
+      <c r="H56">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6941,14 +9219,20 @@
       <c r="E57">
         <v>0.1</v>
       </c>
-      <c r="F57">
-        <v>0</v>
+      <c r="F57" s="19">
+        <v>0.1</v>
       </c>
       <c r="G57">
+        <v>0.15</v>
+      </c>
+      <c r="H57">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -6961,14 +9245,20 @@
       <c r="E58">
         <v>5</v>
       </c>
-      <c r="F58">
-        <v>0</v>
+      <c r="F58" s="19">
+        <v>5</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -6984,14 +9274,20 @@
       <c r="E59">
         <v>0.48</v>
       </c>
-      <c r="F59">
-        <v>0.39400000000000002</v>
+      <c r="F59" s="19">
+        <v>0.48</v>
       </c>
       <c r="G59">
+        <v>0.45</v>
+      </c>
+      <c r="H59">
+        <v>0.45</v>
+      </c>
+      <c r="I59">
         <v>0.48</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -7007,14 +9303,20 @@
       <c r="E60">
         <v>0.48</v>
       </c>
-      <c r="F60">
-        <v>0.39400000000000002</v>
+      <c r="F60" s="19">
+        <v>0.48</v>
       </c>
       <c r="G60">
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <v>0.45</v>
+      </c>
+      <c r="I60">
         <v>0.48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7030,22 +9332,29 @@
       <c r="E61">
         <v>4</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="19">
         <v>4</v>
       </c>
       <c r="G61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7058,14 +9367,20 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G63">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I63">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7078,14 +9393,20 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G64">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7098,14 +9419,20 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="19">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>0.32300000000000001</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -7121,14 +9448,20 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="19">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>1.44E-2</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -7144,14 +9477,20 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>2.5430000000000001</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -7167,14 +9506,20 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="19">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>0.16889999999999999</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -7184,88 +9529,99 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>0.93895242486246377</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>0.5812155</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F72" s="19"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F73" s="19"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>6.2690037344620873</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>0.18916359999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F78" s="19"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>0.6551283</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="F79" s="19"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -7281,14 +9637,20 @@
       <c r="E80">
         <v>-90</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="19">
+        <v>-60</v>
+      </c>
+      <c r="G80">
         <v>-90</v>
       </c>
-      <c r="G80">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H80">
+        <v>-90</v>
+      </c>
+      <c r="I80">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -7304,14 +9666,20 @@
       <c r="E81">
         <v>0.8</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G81">
         <v>0.8</v>
       </c>
-      <c r="G81">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H81">
+        <v>0.8</v>
+      </c>
+      <c r="I81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -7327,14 +9695,20 @@
       <c r="E82">
         <v>24</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="19">
         <v>24</v>
       </c>
       <c r="G82">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H82">
+        <v>24</v>
+      </c>
+      <c r="I82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -7350,20 +9724,26 @@
       <c r="E83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="19">
+        <v>1.95</v>
+      </c>
+      <c r="G83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G83">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.6">
+      <c r="H83">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I83">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.6">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
     </row>
   </sheetData>

--- a/data/input/data.input2.xlsx
+++ b/data/input/data.input2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3PG\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFAE639-DAA5-4B1B-9835-58556C1DB861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00411A-A86B-4924-9E18-BDAE84D1A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29310" yWindow="960" windowWidth="41385" windowHeight="18225" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView xWindow="19230" yWindow="675" windowWidth="38655" windowHeight="17370" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="site" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="climate2" sheetId="10" r:id="rId6"/>
     <sheet name="thinning" sheetId="6" r:id="rId7"/>
     <sheet name="sizeDist" sheetId="7" r:id="rId8"/>
-    <sheet name="parameters" sheetId="1" r:id="rId9"/>
+    <sheet name="parameters" sheetId="15" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="264">
   <si>
     <t>pFS2</t>
   </si>
@@ -870,6 +870,15 @@
   <si>
     <t>Blank Tree</t>
   </si>
+  <si>
+    <t>Original Black Spruce</t>
+  </si>
+  <si>
+    <t>Original Lodgepole Pine</t>
+  </si>
+  <si>
+    <t>Original Jack Pine</t>
+  </si>
 </sst>
 </file>
 
@@ -878,7 +887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -980,8 +989,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,6 +1018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1072,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1102,6 +1123,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1514,7 +1538,7 @@
     <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>146</v>
       </c>
@@ -3024,7 +3048,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7717,11 +7741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003E9A71-E1A2-2845-B4A9-990606FB2D91}">
-  <dimension ref="A1:I110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E9D12-CDB0-4E3A-8BE0-8F6BB91E398D}">
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7730,11 +7754,11 @@
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>126</v>
       </c>
@@ -7750,20 +7774,29 @@
       <c r="E1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7779,20 +7812,29 @@
       <c r="E2">
         <v>0.8</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2">
         <v>1.53</v>
       </c>
       <c r="G2">
+        <v>1.53</v>
+      </c>
+      <c r="H2">
         <v>0.61</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="J2" s="22">
         <v>1.53</v>
       </c>
-      <c r="I2">
+      <c r="K2" s="22">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="19">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7808,20 +7850,29 @@
       <c r="E3">
         <v>0.4</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3">
         <v>0.55000000000000004</v>
       </c>
       <c r="G3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3">
         <v>0.22</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="J3" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="22">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7837,20 +7888,29 @@
       <c r="E4">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="G4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="H4">
         <v>0.1084</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="22">
+        <v>0.1084</v>
+      </c>
+      <c r="J4" s="22">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="22">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="19">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7866,20 +7926,29 @@
       <c r="E5">
         <v>2.72</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5">
         <v>3.282</v>
       </c>
       <c r="G5">
+        <v>3.282</v>
+      </c>
+      <c r="H5">
         <v>2.19</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="22">
+        <v>2.19</v>
+      </c>
+      <c r="J5" s="22">
         <v>3.282</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="22">
         <v>3.282</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="19">
+        <v>3.282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7895,7 +7964,7 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6">
         <v>0.8</v>
       </c>
       <c r="G6">
@@ -7904,11 +7973,20 @@
       <c r="H6">
         <v>0.8</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7924,7 +8002,7 @@
       <c r="E7">
         <v>0.25</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7">
         <v>0.25</v>
       </c>
       <c r="G7">
@@ -7933,11 +8011,20 @@
       <c r="H7">
         <v>0.25</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="22">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7953,20 +8040,29 @@
       <c r="E8">
         <v>0.03</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H8">
         <v>1.04E-2</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="22">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J8" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I8">
+      <c r="K8" s="22">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7982,20 +8078,29 @@
       <c r="E9">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9">
         <v>0.01</v>
       </c>
       <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
         <v>1E-3</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="22">
         <v>0.01</v>
       </c>
-      <c r="I9">
+      <c r="K9" s="22">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8011,8 +8116,8 @@
       <c r="E10">
         <v>36</v>
       </c>
-      <c r="F10" s="19">
-        <v>120</v>
+      <c r="F10">
+        <v>36</v>
       </c>
       <c r="G10">
         <v>36</v>
@@ -8020,11 +8125,20 @@
       <c r="H10">
         <v>36</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="22">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="22">
+        <v>36</v>
+      </c>
+      <c r="K10" s="22">
+        <v>36</v>
+      </c>
+      <c r="L10" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8040,38 +8154,53 @@
       <c r="E11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J11" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I11">
+      <c r="K11" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8087,20 +8216,29 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14">
+        <v>-7</v>
+      </c>
+      <c r="G14">
+        <v>-7</v>
+      </c>
+      <c r="H14">
+        <v>-2</v>
+      </c>
+      <c r="I14" s="22">
+        <v>-2</v>
+      </c>
+      <c r="J14" s="22">
+        <v>-7</v>
+      </c>
+      <c r="K14" s="22">
+        <v>-7</v>
+      </c>
+      <c r="L14" s="19">
         <v>38</v>
       </c>
-      <c r="G14">
-        <v>-2</v>
-      </c>
-      <c r="H14">
-        <v>-7</v>
-      </c>
-      <c r="I14">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8116,8 +8254,8 @@
       <c r="E15">
         <v>20</v>
       </c>
-      <c r="F15" s="19">
-        <v>39</v>
+      <c r="F15">
+        <v>15</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -8125,11 +8263,20 @@
       <c r="H15">
         <v>15</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="22">
+        <v>15</v>
+      </c>
+      <c r="K15" s="22">
+        <v>15</v>
+      </c>
+      <c r="L15" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8145,20 +8292,29 @@
       <c r="E16">
         <v>32</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16" s="22">
+        <v>35</v>
+      </c>
+      <c r="J16" s="22">
+        <v>30</v>
+      </c>
+      <c r="K16" s="22">
+        <v>30</v>
+      </c>
+      <c r="L16" s="19">
         <v>40</v>
       </c>
-      <c r="G16">
-        <v>35</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
-      </c>
-      <c r="I16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8174,7 +8330,7 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
@@ -8183,11 +8339,20 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="22">
+        <v>1</v>
+      </c>
+      <c r="K17" s="22">
+        <v>1</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8203,8 +8368,8 @@
       <c r="E18">
         <v>0.7</v>
       </c>
-      <c r="F18" s="19">
-        <v>0.6</v>
+      <c r="F18">
+        <v>0.7</v>
       </c>
       <c r="G18">
         <v>0.7</v>
@@ -8212,11 +8377,20 @@
       <c r="H18">
         <v>0.7</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="22">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8232,8 +8406,8 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" s="19">
-        <v>2</v>
+      <c r="F19">
+        <v>9</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -8241,11 +8415,20 @@
       <c r="H19">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="22">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="22">
+        <v>9</v>
+      </c>
+      <c r="K19" s="22">
+        <v>9</v>
+      </c>
+      <c r="L19" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8258,7 +8441,7 @@
       <c r="E20">
         <v>1.4</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20">
         <v>1.4</v>
       </c>
       <c r="G20">
@@ -8267,11 +8450,20 @@
       <c r="H20">
         <v>1.4</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="22">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="K20" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="L20" s="19">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8284,7 +8476,7 @@
       <c r="E21">
         <v>0.7</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21">
         <v>0.7</v>
       </c>
       <c r="G21">
@@ -8293,11 +8485,20 @@
       <c r="H21">
         <v>0.7</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="22">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8313,8 +8514,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="19">
-        <v>0</v>
+      <c r="F22">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G22">
         <v>1.4999999999999999E-2</v>
@@ -8322,11 +8523,20 @@
       <c r="H22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K22" s="22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8342,8 +8552,8 @@
       <c r="E23">
         <v>0.6</v>
       </c>
-      <c r="F23" s="19">
-        <v>0.6</v>
+      <c r="F23">
+        <v>0.5</v>
       </c>
       <c r="G23">
         <v>0.5</v>
@@ -8351,11 +8561,20 @@
       <c r="H23">
         <v>0.5</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8371,8 +8590,8 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="19">
-        <v>1</v>
+      <c r="F24">
+        <v>0.5</v>
       </c>
       <c r="G24">
         <v>0.5</v>
@@ -8380,11 +8599,20 @@
       <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8400,20 +8628,29 @@
       <c r="E25">
         <v>50</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25">
         <v>150</v>
       </c>
       <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="H25">
         <v>200</v>
       </c>
-      <c r="H25">
+      <c r="I25" s="22">
+        <v>200</v>
+      </c>
+      <c r="J25" s="22">
         <v>150</v>
       </c>
-      <c r="I25">
+      <c r="K25" s="22">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -8429,7 +8666,7 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26">
         <v>4</v>
       </c>
       <c r="G26">
@@ -8438,11 +8675,20 @@
       <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="22">
+        <v>4</v>
+      </c>
+      <c r="K26" s="22">
+        <v>4</v>
+      </c>
+      <c r="L26" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8458,7 +8704,7 @@
       <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27">
         <v>0.95</v>
       </c>
       <c r="G27">
@@ -8467,11 +8713,20 @@
       <c r="H27">
         <v>0.95</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="22">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8739,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
@@ -8493,11 +8748,20 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="22">
+        <v>0</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8510,7 +8774,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
@@ -8519,11 +8783,20 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="22">
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8536,7 +8809,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
@@ -8545,11 +8818,20 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="22">
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22">
+        <v>0</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8562,7 +8844,7 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
@@ -8571,11 +8853,20 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="22">
+        <v>1</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8591,20 +8882,29 @@
       <c r="E32">
         <v>160</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32">
+        <v>350</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32">
+        <v>300</v>
+      </c>
+      <c r="I32" s="22">
+        <v>300</v>
+      </c>
+      <c r="J32" s="22">
+        <v>350</v>
+      </c>
+      <c r="K32" s="22">
+        <v>500</v>
+      </c>
+      <c r="L32" s="19">
         <v>220</v>
       </c>
-      <c r="G32">
-        <v>300</v>
-      </c>
-      <c r="H32">
-        <v>350</v>
-      </c>
-      <c r="I32">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8620,7 +8920,7 @@
       <c r="E33">
         <v>1.5</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33">
         <v>1.5</v>
       </c>
       <c r="G33">
@@ -8629,11 +8929,20 @@
       <c r="H33">
         <v>1.5</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="K33" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L33" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -8649,20 +8958,29 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="22">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="K34" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -8678,20 +8996,29 @@
       <c r="E35">
         <v>0.2</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>0.2</v>
       </c>
-      <c r="H35">
+      <c r="I35" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="22">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="K35" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -8707,20 +9034,29 @@
       <c r="E36">
         <v>0.2</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>0.2</v>
       </c>
-      <c r="H36">
+      <c r="I36" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J36" s="22">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="K36" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -8736,20 +9072,29 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37">
         <v>5.79</v>
       </c>
       <c r="G37">
+        <v>5.6</v>
+      </c>
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="H37">
+      <c r="I37" s="22">
+        <v>4</v>
+      </c>
+      <c r="J37" s="22">
         <v>5.79</v>
       </c>
-      <c r="I37">
+      <c r="K37" s="22">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37" s="19">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -8765,20 +9110,29 @@
       <c r="E38">
         <v>5</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38">
         <v>3.1</v>
       </c>
       <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
         <v>4.8</v>
       </c>
-      <c r="H38">
+      <c r="I38" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="J38" s="22">
         <v>3.1</v>
       </c>
-      <c r="I38">
+      <c r="K38" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38" s="19">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -8794,20 +9148,29 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39">
         <v>2</v>
       </c>
       <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>15</v>
       </c>
-      <c r="H39">
+      <c r="I39" s="22">
+        <v>15</v>
+      </c>
+      <c r="J39" s="22">
         <v>2</v>
       </c>
-      <c r="I39">
+      <c r="K39" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L39" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -8823,8 +9186,8 @@
       <c r="E40">
         <v>0.5</v>
       </c>
-      <c r="F40" s="19">
-        <v>0.6</v>
+      <c r="F40">
+        <v>0.5</v>
       </c>
       <c r="G40">
         <v>0.5</v>
@@ -8832,11 +9195,20 @@
       <c r="H40">
         <v>0.5</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -8852,20 +9224,29 @@
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41">
         <v>20</v>
       </c>
       <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
         <v>18</v>
       </c>
-      <c r="H41">
+      <c r="I41" s="22">
+        <v>18</v>
+      </c>
+      <c r="J41" s="22">
         <v>20</v>
       </c>
-      <c r="I41">
+      <c r="K41" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -8881,7 +9262,7 @@
       <c r="E42">
         <v>0.15</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42">
         <v>0.15</v>
       </c>
       <c r="G42">
@@ -8890,11 +9271,20 @@
       <c r="H42">
         <v>0.15</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="22">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K42" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -8910,20 +9300,29 @@
       <c r="E43">
         <v>5</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
         <v>3.1</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
       </c>
       <c r="H43">
         <v>5</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="22">
+        <v>5</v>
+      </c>
+      <c r="J43" s="22">
+        <v>5</v>
+      </c>
+      <c r="K43" s="22">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L43" s="19">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -8933,9 +9332,12 @@
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -8951,20 +9353,29 @@
       <c r="E45">
         <v>0.05</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45">
+        <v>0.04</v>
+      </c>
+      <c r="G45">
+        <v>0.04</v>
+      </c>
+      <c r="H45">
+        <v>0.03</v>
+      </c>
+      <c r="I45" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="J45" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="K45" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="L45" s="19">
         <v>4.7E-2</v>
       </c>
-      <c r="G45">
-        <v>0.03</v>
-      </c>
-      <c r="H45">
-        <v>0.04</v>
-      </c>
-      <c r="I45">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -8980,7 +9391,7 @@
       <c r="E46">
         <v>0.47</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46">
         <v>0.47</v>
       </c>
       <c r="G46">
@@ -8989,11 +9400,20 @@
       <c r="H46">
         <v>0.47</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="22">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="22">
+        <v>0.47</v>
+      </c>
+      <c r="K46" s="22">
+        <v>0.47</v>
+      </c>
+      <c r="L46" s="19">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -9009,7 +9429,7 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
@@ -9018,11 +9438,20 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="22">
+        <v>0</v>
+      </c>
+      <c r="J47" s="22">
+        <v>0</v>
+      </c>
+      <c r="K47" s="22">
+        <v>0</v>
+      </c>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -9038,7 +9467,7 @@
       <c r="E48">
         <v>0.02</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48">
         <v>0.02</v>
       </c>
       <c r="G48">
@@ -9047,11 +9476,20 @@
       <c r="H48">
         <v>0.02</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="22">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="K48" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="L48" s="19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -9067,20 +9505,29 @@
       <c r="E49">
         <v>3.33</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49">
         <v>3</v>
       </c>
       <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
         <v>3.33</v>
       </c>
-      <c r="H49">
+      <c r="I49" s="22">
+        <v>3.33</v>
+      </c>
+      <c r="J49" s="22">
         <v>3</v>
       </c>
-      <c r="I49">
+      <c r="K49" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L49" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -9096,20 +9543,29 @@
       <c r="E50">
         <v>0.05</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50">
         <v>5.5E-2</v>
       </c>
       <c r="G50">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H50">
         <v>0.05</v>
       </c>
-      <c r="H50">
+      <c r="I50" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J50" s="22">
         <v>5.5E-2</v>
       </c>
-      <c r="I50">
+      <c r="K50" s="22">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L50" s="19">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -9125,7 +9581,7 @@
       <c r="E51">
         <v>0.2</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51">
         <v>0.2</v>
       </c>
       <c r="G51">
@@ -9134,47 +9590,68 @@
       <c r="H51">
         <v>0.2</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K51" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="L51" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>0.66</v>
       </c>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>27</v>
       </c>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -9190,20 +9667,29 @@
       <c r="E56">
         <v>0.5</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56">
         <v>0.5</v>
       </c>
       <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="H56">
         <v>0.75</v>
       </c>
-      <c r="H56">
+      <c r="I56" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J56" s="22">
         <v>0.5</v>
       </c>
-      <c r="I56">
+      <c r="K56" s="22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L56" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -9219,20 +9705,29 @@
       <c r="E57">
         <v>0.1</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57">
         <v>0.1</v>
       </c>
       <c r="G57">
+        <v>0.1</v>
+      </c>
+      <c r="H57">
         <v>0.15</v>
       </c>
-      <c r="H57">
+      <c r="I57" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="J57" s="22">
         <v>0.1</v>
       </c>
-      <c r="I57">
+      <c r="K57" s="22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L57" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -9245,20 +9740,29 @@
       <c r="E58">
         <v>5</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58">
         <v>5</v>
       </c>
       <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
         <v>2</v>
       </c>
-      <c r="H58">
+      <c r="I58" s="22">
+        <v>2</v>
+      </c>
+      <c r="J58" s="22">
         <v>5</v>
       </c>
-      <c r="I58">
+      <c r="K58" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L58" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -9274,20 +9778,29 @@
       <c r="E59">
         <v>0.48</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59">
+        <v>0.45</v>
+      </c>
+      <c r="G59">
         <v>0.48</v>
-      </c>
-      <c r="G59">
-        <v>0.45</v>
       </c>
       <c r="H59">
         <v>0.45</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="J59" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="K59" s="22">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L59" s="19">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -9303,20 +9816,29 @@
       <c r="E60">
         <v>0.48</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60">
+        <v>0.45</v>
+      </c>
+      <c r="G60">
         <v>0.48</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.5</v>
       </c>
-      <c r="H60">
+      <c r="I60" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="22">
         <v>0.45</v>
       </c>
-      <c r="I60">
+      <c r="K60" s="22">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L60" s="19">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -9332,7 +9854,7 @@
       <c r="E61">
         <v>4</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61">
         <v>4</v>
       </c>
       <c r="G61">
@@ -9341,20 +9863,32 @@
       <c r="H61">
         <v>4</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="22">
+        <v>4</v>
+      </c>
+      <c r="K61" s="22">
+        <v>4</v>
+      </c>
+      <c r="L61" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -9367,20 +9901,29 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63">
         <v>0.6</v>
       </c>
       <c r="G63">
+        <v>0.6</v>
+      </c>
+      <c r="H63">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="H63">
+      <c r="I63" s="22">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="J63" s="22">
         <v>0.6</v>
       </c>
-      <c r="I63">
+      <c r="K63" s="22">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L63" s="19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -9393,20 +9936,29 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64">
         <v>1.2</v>
       </c>
       <c r="G64">
+        <v>1.2</v>
+      </c>
+      <c r="H64">
         <v>0.92400000000000004</v>
       </c>
-      <c r="H64">
+      <c r="I64" s="22">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J64" s="22">
         <v>1.2</v>
       </c>
-      <c r="I64">
+      <c r="K64" s="22">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L64" s="19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -9419,20 +9971,29 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>0.32300000000000001</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="22">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J65" s="22">
+        <v>0</v>
+      </c>
+      <c r="K65" s="22">
+        <v>0</v>
+      </c>
+      <c r="L65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -9448,20 +10009,29 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>1.44E-2</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="22">
+        <v>0</v>
+      </c>
+      <c r="J66" s="22">
+        <v>0</v>
+      </c>
+      <c r="K66" s="22">
+        <v>0</v>
+      </c>
+      <c r="L66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -9477,20 +10047,29 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>2.5430000000000001</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="22">
+        <v>0</v>
+      </c>
+      <c r="J67" s="22">
+        <v>0</v>
+      </c>
+      <c r="K67" s="22">
+        <v>0</v>
+      </c>
+      <c r="L67" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -9506,20 +10085,29 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>0.16889999999999999</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="22">
+        <v>0</v>
+      </c>
+      <c r="J68" s="22">
+        <v>0</v>
+      </c>
+      <c r="K68" s="22">
+        <v>0</v>
+      </c>
+      <c r="L68" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -9529,99 +10117,132 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="19"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>0.93895242486246377</v>
       </c>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="19"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>0.5812155</v>
       </c>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="19"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="F72" s="19"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="19"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="19"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>6.2690037344620873</v>
       </c>
-      <c r="F75" s="19"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="19"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>0.18916359999999999</v>
       </c>
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="19"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="F77" s="19"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="19"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-      <c r="F78" s="19"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="19"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>0.6551283</v>
       </c>
-      <c r="F79" s="19"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="19"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -9637,8 +10258,8 @@
       <c r="E80">
         <v>-90</v>
       </c>
-      <c r="F80" s="19">
-        <v>-60</v>
+      <c r="F80">
+        <v>-90</v>
       </c>
       <c r="G80">
         <v>-90</v>
@@ -9646,11 +10267,20 @@
       <c r="H80">
         <v>-90</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="22">
         <v>-90</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="22">
+        <v>-90</v>
+      </c>
+      <c r="K80" s="22">
+        <v>-90</v>
+      </c>
+      <c r="L80" s="19">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -9666,8 +10296,8 @@
       <c r="E81">
         <v>0.8</v>
       </c>
-      <c r="F81" s="19">
-        <v>0.6</v>
+      <c r="F81">
+        <v>0.8</v>
       </c>
       <c r="G81">
         <v>0.8</v>
@@ -9675,11 +10305,20 @@
       <c r="H81">
         <v>0.8</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K81" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L81" s="19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -9695,7 +10334,7 @@
       <c r="E82">
         <v>24</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82">
         <v>24</v>
       </c>
       <c r="G82">
@@ -9704,11 +10343,20 @@
       <c r="H82">
         <v>24</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="22">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="22">
+        <v>24</v>
+      </c>
+      <c r="K82" s="22">
+        <v>24</v>
+      </c>
+      <c r="L82" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -9724,8 +10372,8 @@
       <c r="E83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F83" s="19">
-        <v>1.95</v>
+      <c r="F83">
+        <v>2.2999999999999998</v>
       </c>
       <c r="G83">
         <v>2.2999999999999998</v>
@@ -9733,9 +10381,23 @@
       <c r="H83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="22">
         <v>2.2999999999999998</v>
       </c>
+      <c r="J83" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K83" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L83" s="19">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
@@ -9748,5 +10410,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/input/data.input2.xlsx
+++ b/data/input/data.input2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3PG\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00411A-A86B-4924-9E18-BDAE84D1A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E247F6-6121-4FCE-B907-6DF39E5665DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19230" yWindow="675" windowWidth="38655" windowHeight="17370" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView xWindow="6915" yWindow="330" windowWidth="25380" windowHeight="19650" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="site" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="266">
   <si>
     <t>pFS2</t>
   </si>
@@ -879,6 +879,12 @@
   <si>
     <t>Original Jack Pine</t>
   </si>
+  <si>
+    <t>Lodgepole-Pine-2</t>
+  </si>
+  <si>
+    <t>Lodgepole-r3PG</t>
+  </si>
 </sst>
 </file>
 
@@ -887,7 +893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -930,7 +936,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -995,8 +1001,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,8 +1040,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1065,6 +1096,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1072,7 +1114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1126,6 +1168,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7742,10 +7804,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E9D12-CDB0-4E3A-8BE0-8F6BB91E398D}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7754,11 +7816,15 @@
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>126</v>
       </c>
@@ -7795,8 +7861,14 @@
       <c r="L1" s="18" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7833,8 +7905,14 @@
       <c r="L2" s="19">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="24">
+        <v>1.53</v>
+      </c>
+      <c r="N2" s="30">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7871,8 +7949,14 @@
       <c r="L3" s="19">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N3" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7909,8 +7993,14 @@
       <c r="L4" s="19">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="24">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="N4" s="30">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7947,8 +8037,14 @@
       <c r="L5" s="19">
         <v>3.282</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="24">
+        <v>3.282</v>
+      </c>
+      <c r="N5" s="30">
+        <v>3.282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7985,8 +8081,14 @@
       <c r="L6" s="19">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8023,8 +8125,14 @@
       <c r="L7" s="19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8061,8 +8169,14 @@
       <c r="L8" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N8" s="30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8099,8 +8213,14 @@
       <c r="L9" s="19">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8137,8 +8257,14 @@
       <c r="L10" s="19">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="25">
+        <v>36</v>
+      </c>
+      <c r="N10" s="30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8175,8 +8301,14 @@
       <c r="L11" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N11" s="30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8188,7 +8320,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8199,8 +8331,9 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8237,8 +8370,14 @@
       <c r="L14" s="19">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="24">
+        <v>-7</v>
+      </c>
+      <c r="N14" s="30">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8275,8 +8414,14 @@
       <c r="L15" s="19">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="24">
+        <v>15</v>
+      </c>
+      <c r="N15" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8313,8 +8458,14 @@
       <c r="L16" s="19">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="24">
+        <v>30</v>
+      </c>
+      <c r="N16" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8351,8 +8502,14 @@
       <c r="L17" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="25">
+        <v>1</v>
+      </c>
+      <c r="N17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8389,8 +8546,14 @@
       <c r="L18" s="19">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="N18" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8427,8 +8590,14 @@
       <c r="L19" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="24">
+        <v>9</v>
+      </c>
+      <c r="N19" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8462,8 +8631,14 @@
       <c r="L20" s="19">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="N20" s="30">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8497,8 +8672,14 @@
       <c r="L21" s="19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="N21" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8535,8 +8716,14 @@
       <c r="L22" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8573,8 +8760,14 @@
       <c r="L23" s="19">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="26">
+        <v>1</v>
+      </c>
+      <c r="N23" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8611,8 +8804,14 @@
       <c r="L24" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="26">
+        <v>1</v>
+      </c>
+      <c r="N24" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8649,8 +8848,14 @@
       <c r="L25" s="19">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="24">
+        <v>150</v>
+      </c>
+      <c r="N25" s="30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -8687,8 +8892,14 @@
       <c r="L26" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="24">
+        <v>4</v>
+      </c>
+      <c r="N26" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8725,8 +8936,14 @@
       <c r="L27" s="19">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="N27" s="30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8760,8 +8977,14 @@
       <c r="L28" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="24">
+        <v>0</v>
+      </c>
+      <c r="N28" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8795,8 +9018,14 @@
       <c r="L29" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="24">
+        <v>0</v>
+      </c>
+      <c r="N29" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8830,8 +9059,14 @@
       <c r="L30" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="24">
+        <v>0</v>
+      </c>
+      <c r="N30" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8865,8 +9100,14 @@
       <c r="L31" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="24">
+        <v>1</v>
+      </c>
+      <c r="N31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8903,8 +9144,14 @@
       <c r="L32" s="19">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="27">
+        <v>220</v>
+      </c>
+      <c r="N32" s="30">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8941,8 +9188,14 @@
       <c r="L33" s="19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="N33" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -8979,8 +9232,14 @@
       <c r="L34" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="24">
+        <v>1</v>
+      </c>
+      <c r="N34" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9017,8 +9276,14 @@
       <c r="L35" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="25">
+        <v>1</v>
+      </c>
+      <c r="N35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9055,8 +9320,14 @@
       <c r="L36" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="25">
+        <v>1</v>
+      </c>
+      <c r="N36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9093,8 +9364,14 @@
       <c r="L37" s="19">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="25">
+        <v>5.79</v>
+      </c>
+      <c r="N37" s="30">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9131,8 +9408,14 @@
       <c r="L38" s="19">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="N38" s="30">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9169,8 +9452,14 @@
       <c r="L39" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="25">
+        <v>2</v>
+      </c>
+      <c r="N39" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9207,8 +9496,14 @@
       <c r="L40" s="19">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="N40" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9245,8 +9540,14 @@
       <c r="L41" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="24">
+        <v>20</v>
+      </c>
+      <c r="N41" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9283,8 +9584,14 @@
       <c r="L42" s="19">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="N42" s="30">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9321,8 +9628,14 @@
       <c r="L43" s="19">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="24">
+        <v>5</v>
+      </c>
+      <c r="N43" s="30">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9336,8 +9649,9 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="19"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9374,8 +9688,14 @@
       <c r="L45" s="19">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N45" s="30">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -9412,8 +9732,14 @@
       <c r="L46" s="19">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="N46" s="30">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -9450,8 +9776,14 @@
       <c r="L47" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="24">
+        <v>0</v>
+      </c>
+      <c r="N47" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -9488,8 +9820,14 @@
       <c r="L48" s="19">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="N48" s="30">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -9526,8 +9864,14 @@
       <c r="L49" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="25">
+        <v>3</v>
+      </c>
+      <c r="N49" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -9564,8 +9908,14 @@
       <c r="L50" s="19">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="24">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N50" s="30">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -9602,8 +9952,14 @@
       <c r="L51" s="19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="N51" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -9615,7 +9971,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -9626,8 +9982,9 @@
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="19"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="24"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -9639,7 +9996,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -9651,7 +10008,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="19"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -9688,8 +10045,14 @@
       <c r="L56" s="19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -9726,8 +10089,14 @@
       <c r="L57" s="19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="N57" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -9761,8 +10130,14 @@
       <c r="L58" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="24">
+        <v>5</v>
+      </c>
+      <c r="N58" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -9799,8 +10174,14 @@
       <c r="L59" s="19">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="N59" s="30">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -9837,8 +10218,14 @@
       <c r="L60" s="19">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="30">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -9875,8 +10262,14 @@
       <c r="L61" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="24">
+        <v>4</v>
+      </c>
+      <c r="N61" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -9887,8 +10280,9 @@
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="19"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -9922,8 +10316,14 @@
       <c r="L63" s="19">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="N63" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -9957,8 +10357,14 @@
       <c r="L64" s="19">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="N64" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -9992,8 +10398,14 @@
       <c r="L65" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="24">
+        <v>0</v>
+      </c>
+      <c r="N65" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -10030,8 +10442,14 @@
       <c r="L66" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="24">
+        <v>0</v>
+      </c>
+      <c r="N66" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -10068,8 +10486,14 @@
       <c r="L67" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="24">
+        <v>0</v>
+      </c>
+      <c r="N67" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -10106,8 +10530,14 @@
       <c r="L68" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="24">
+        <v>0</v>
+      </c>
+      <c r="N68" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -10122,7 +10552,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="19"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10133,8 +10563,9 @@
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
       <c r="L70" s="19"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N70" s="30"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10145,8 +10576,9 @@
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
       <c r="L71" s="19"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="24"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10158,7 +10590,7 @@
       <c r="K72" s="22"/>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10170,7 +10602,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="19"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10181,8 +10613,9 @@
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
       <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N74" s="30"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10194,7 +10627,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="19"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10206,7 +10639,7 @@
       <c r="K76" s="22"/>
       <c r="L76" s="19"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10218,7 +10651,7 @@
       <c r="K77" s="22"/>
       <c r="L77" s="19"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10229,8 +10662,9 @@
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
       <c r="L78" s="19"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N78" s="30"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10241,8 +10675,9 @@
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
       <c r="L79" s="19"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="24"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -10279,8 +10714,14 @@
       <c r="L80" s="19">
         <v>-60</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="24">
+        <v>-90</v>
+      </c>
+      <c r="N80">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -10317,8 +10758,14 @@
       <c r="L81" s="19">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="N81">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -10355,8 +10802,14 @@
       <c r="L82" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="24">
+        <v>24</v>
+      </c>
+      <c r="N82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -10393,11 +10846,18 @@
       <c r="L83" s="19">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N83">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
+      <c r="M84" s="28"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>

--- a/data/input/data.input2.xlsx
+++ b/data/input/data.input2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3PG\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E247F6-6121-4FCE-B907-6DF39E5665DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C07319-CE98-4906-ADFD-3F078B9DFCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="330" windowWidth="25380" windowHeight="19650" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView xWindow="3090" yWindow="675" windowWidth="38700" windowHeight="19650" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="site" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="267">
   <si>
     <t>pFS2</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>Lodgepole-r3PG</t>
+  </si>
+  <si>
+    <t>Lodgepole-Pine-3</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1117,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1188,6 +1191,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,6 +1203,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7804,10 +7816,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E9D12-CDB0-4E3A-8BE0-8F6BB91E398D}">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7819,12 +7831,13 @@
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>126</v>
       </c>
@@ -7852,7 +7865,7 @@
       <c r="I1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="31" t="s">
         <v>150</v>
       </c>
       <c r="K1" s="21" t="s">
@@ -7867,8 +7880,11 @@
       <c r="N1" s="29" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7896,7 +7912,7 @@
       <c r="I2" s="22">
         <v>0.61</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="28">
         <v>1.53</v>
       </c>
       <c r="K2" s="22">
@@ -7911,8 +7927,11 @@
       <c r="N2" s="30">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="24">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7940,7 +7959,7 @@
       <c r="I3" s="22">
         <v>0.22</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="28">
         <v>0.55000000000000004</v>
       </c>
       <c r="K3" s="22">
@@ -7955,8 +7974,11 @@
       <c r="N3" s="30">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +8006,7 @@
       <c r="I4" s="22">
         <v>0.1084</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="28">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="K4" s="22">
@@ -7999,8 +8021,11 @@
       <c r="N4" s="30">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="24">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8028,7 +8053,7 @@
       <c r="I5" s="22">
         <v>2.19</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="28">
         <v>3.282</v>
       </c>
       <c r="K5" s="22">
@@ -8043,8 +8068,11 @@
       <c r="N5" s="30">
         <v>3.282</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="24">
+        <v>3.282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8072,7 +8100,7 @@
       <c r="I6" s="22">
         <v>0.8</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="28">
         <v>0.8</v>
       </c>
       <c r="K6" s="22">
@@ -8087,8 +8115,11 @@
       <c r="N6" s="30">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8116,7 +8147,7 @@
       <c r="I7" s="22">
         <v>0.25</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="28">
         <v>0.25</v>
       </c>
       <c r="K7" s="22">
@@ -8131,8 +8162,11 @@
       <c r="N7" s="30">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8160,7 +8194,7 @@
       <c r="I8" s="22">
         <v>1.04E-2</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="28">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K8" s="22">
@@ -8175,8 +8209,11 @@
       <c r="N8" s="30">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8204,7 +8241,7 @@
       <c r="I9" s="22">
         <v>1E-3</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="28">
         <v>0.01</v>
       </c>
       <c r="K9" s="22">
@@ -8219,8 +8256,11 @@
       <c r="N9" s="30">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8248,7 +8288,7 @@
       <c r="I10" s="22">
         <v>36</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="28">
         <v>36</v>
       </c>
       <c r="K10" s="22">
@@ -8263,8 +8303,11 @@
       <c r="N10" s="30">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8292,7 +8335,7 @@
       <c r="I11" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="28">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K11" s="22">
@@ -8307,33 +8350,53 @@
       <c r="N11" s="30">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8361,7 +8424,7 @@
       <c r="I14" s="22">
         <v>-2</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="28">
         <v>-7</v>
       </c>
       <c r="K14" s="22">
@@ -8376,8 +8439,11 @@
       <c r="N14" s="30">
         <v>-7</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="24">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8405,7 +8471,7 @@
       <c r="I15" s="22">
         <v>15</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="28">
         <v>15</v>
       </c>
       <c r="K15" s="22">
@@ -8420,8 +8486,11 @@
       <c r="N15" s="30">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8449,7 +8518,7 @@
       <c r="I16" s="22">
         <v>35</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="28">
         <v>30</v>
       </c>
       <c r="K16" s="22">
@@ -8464,8 +8533,11 @@
       <c r="N16" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8493,7 +8565,7 @@
       <c r="I17" s="22">
         <v>1</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="28">
         <v>1</v>
       </c>
       <c r="K17" s="22">
@@ -8508,8 +8580,11 @@
       <c r="N17" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8537,7 +8612,7 @@
       <c r="I18" s="22">
         <v>0.7</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="28">
         <v>0.7</v>
       </c>
       <c r="K18" s="22">
@@ -8552,8 +8627,11 @@
       <c r="N18" s="30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8581,7 +8659,7 @@
       <c r="I19" s="22">
         <v>9</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="28">
         <v>9</v>
       </c>
       <c r="K19" s="22">
@@ -8596,8 +8674,11 @@
       <c r="N19" s="30">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8622,7 +8703,7 @@
       <c r="I20" s="22">
         <v>1.4</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="28">
         <v>1.4</v>
       </c>
       <c r="K20" s="22">
@@ -8637,8 +8718,11 @@
       <c r="N20" s="30">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="24">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8663,7 +8747,7 @@
       <c r="I21" s="22">
         <v>0.7</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="28">
         <v>0.7</v>
       </c>
       <c r="K21" s="22">
@@ -8678,8 +8762,11 @@
       <c r="N21" s="30">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8707,7 +8794,7 @@
       <c r="I22" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="28">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K22" s="22">
@@ -8722,8 +8809,11 @@
       <c r="N22" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8751,7 +8841,7 @@
       <c r="I23" s="22">
         <v>0.5</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="28">
         <v>0.5</v>
       </c>
       <c r="K23" s="22">
@@ -8766,8 +8856,11 @@
       <c r="N23" s="30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8795,7 +8888,7 @@
       <c r="I24" s="22">
         <v>0.5</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="28">
         <v>0.5</v>
       </c>
       <c r="K24" s="22">
@@ -8810,8 +8903,11 @@
       <c r="N24" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8839,7 +8935,7 @@
       <c r="I25" s="22">
         <v>200</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="28">
         <v>150</v>
       </c>
       <c r="K25" s="22">
@@ -8854,8 +8950,11 @@
       <c r="N25" s="30">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -8883,7 +8982,7 @@
       <c r="I26" s="22">
         <v>4</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="28">
         <v>4</v>
       </c>
       <c r="K26" s="22">
@@ -8898,8 +8997,11 @@
       <c r="N26" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8927,7 +9029,7 @@
       <c r="I27" s="22">
         <v>0.95</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="28">
         <v>0.95</v>
       </c>
       <c r="K27" s="22">
@@ -8942,8 +9044,11 @@
       <c r="N27" s="30">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8968,7 +9073,7 @@
       <c r="I28" s="22">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="28">
         <v>0</v>
       </c>
       <c r="K28" s="22">
@@ -8983,8 +9088,11 @@
       <c r="N28" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9009,7 +9117,7 @@
       <c r="I29" s="22">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="28">
         <v>0</v>
       </c>
       <c r="K29" s="22">
@@ -9024,8 +9132,11 @@
       <c r="N29" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9050,7 +9161,7 @@
       <c r="I30" s="22">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="28">
         <v>0</v>
       </c>
       <c r="K30" s="22">
@@ -9065,8 +9176,11 @@
       <c r="N30" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9091,7 +9205,7 @@
       <c r="I31" s="22">
         <v>1</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="28">
         <v>1</v>
       </c>
       <c r="K31" s="22">
@@ -9106,8 +9220,11 @@
       <c r="N31" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9135,7 +9252,7 @@
       <c r="I32" s="22">
         <v>300</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="28">
         <v>350</v>
       </c>
       <c r="K32" s="22">
@@ -9150,8 +9267,11 @@
       <c r="N32" s="30">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9179,7 +9299,7 @@
       <c r="I33" s="22">
         <v>1.5</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="28">
         <v>1.5</v>
       </c>
       <c r="K33" s="22">
@@ -9194,8 +9314,11 @@
       <c r="N33" s="30">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9223,7 +9346,7 @@
       <c r="I34" s="22">
         <v>0</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="28">
         <v>1</v>
       </c>
       <c r="K34" s="22">
@@ -9238,8 +9361,11 @@
       <c r="N34" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9267,7 +9393,7 @@
       <c r="I35" s="22">
         <v>0.2</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="28">
         <v>1</v>
       </c>
       <c r="K35" s="22">
@@ -9282,8 +9408,11 @@
       <c r="N35" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9311,7 +9440,7 @@
       <c r="I36" s="22">
         <v>0.2</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="28">
         <v>1</v>
       </c>
       <c r="K36" s="22">
@@ -9326,8 +9455,11 @@
       <c r="N36" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9355,7 +9487,7 @@
       <c r="I37" s="22">
         <v>4</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="28">
         <v>5.79</v>
       </c>
       <c r="K37" s="22">
@@ -9370,8 +9502,11 @@
       <c r="N37" s="30">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="25">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9399,7 +9534,7 @@
       <c r="I38" s="22">
         <v>4.8</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="28">
         <v>3.1</v>
       </c>
       <c r="K38" s="22">
@@ -9414,8 +9549,11 @@
       <c r="N38" s="30">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9443,7 +9581,7 @@
       <c r="I39" s="22">
         <v>15</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="28">
         <v>2</v>
       </c>
       <c r="K39" s="22">
@@ -9458,8 +9596,11 @@
       <c r="N39" s="30">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9487,7 +9628,7 @@
       <c r="I40" s="22">
         <v>0.5</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="28">
         <v>0.5</v>
       </c>
       <c r="K40" s="22">
@@ -9502,8 +9643,11 @@
       <c r="N40" s="30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9531,7 +9675,7 @@
       <c r="I41" s="22">
         <v>18</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="28">
         <v>20</v>
       </c>
       <c r="K41" s="22">
@@ -9546,8 +9690,11 @@
       <c r="N41" s="30">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9575,7 +9722,7 @@
       <c r="I42" s="22">
         <v>0.15</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="28">
         <v>0.15</v>
       </c>
       <c r="K42" s="22">
@@ -9590,8 +9737,11 @@
       <c r="N42" s="30">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9619,7 +9769,7 @@
       <c r="I43" s="22">
         <v>5</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="28">
         <v>5</v>
       </c>
       <c r="K43" s="22">
@@ -9634,8 +9784,11 @@
       <c r="N43" s="30">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9646,12 +9799,13 @@
         <v>5</v>
       </c>
       <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="J44" s="28"/>
       <c r="K44" s="22"/>
       <c r="L44" s="19"/>
       <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="24"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9679,7 +9833,7 @@
       <c r="I45" s="22">
         <v>0.03</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="28">
         <v>0.04</v>
       </c>
       <c r="K45" s="22">
@@ -9694,8 +9848,11 @@
       <c r="N45" s="30">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -9723,7 +9880,7 @@
       <c r="I46" s="22">
         <v>0.47</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="28">
         <v>0.47</v>
       </c>
       <c r="K46" s="22">
@@ -9738,8 +9895,11 @@
       <c r="N46" s="30">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="24">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -9767,7 +9927,7 @@
       <c r="I47" s="22">
         <v>0</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="28">
         <v>0</v>
       </c>
       <c r="K47" s="22">
@@ -9782,8 +9942,11 @@
       <c r="N47" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -9811,7 +9974,7 @@
       <c r="I48" s="22">
         <v>0.02</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="28">
         <v>0.02</v>
       </c>
       <c r="K48" s="22">
@@ -9826,8 +9989,11 @@
       <c r="N48" s="30">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -9855,7 +10021,7 @@
       <c r="I49" s="22">
         <v>3.33</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="28">
         <v>3</v>
       </c>
       <c r="K49" s="22">
@@ -9870,8 +10036,11 @@
       <c r="N49" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -9899,7 +10068,7 @@
       <c r="I50" s="22">
         <v>0.05</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="28">
         <v>5.5E-2</v>
       </c>
       <c r="K50" s="22">
@@ -9914,8 +10083,11 @@
       <c r="N50" s="30">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="24">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -9943,7 +10115,7 @@
       <c r="I51" s="22">
         <v>0.2</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="28">
         <v>0.2</v>
       </c>
       <c r="K51" s="22">
@@ -9958,8 +10130,11 @@
       <c r="N51" s="30">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -9967,11 +10142,11 @@
         <v>0.66</v>
       </c>
       <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="J52" s="28"/>
       <c r="K52" s="22"/>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -9979,12 +10154,13 @@
         <v>2</v>
       </c>
       <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="J53" s="28"/>
       <c r="K53" s="22"/>
       <c r="L53" s="19"/>
       <c r="M53" s="24"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="24"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -9992,11 +10168,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="22"/>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10004,11 +10180,11 @@
         <v>27</v>
       </c>
       <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="J55" s="28"/>
       <c r="K55" s="22"/>
       <c r="L55" s="19"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10036,7 +10212,7 @@
       <c r="I56" s="22">
         <v>0.75</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="28">
         <v>0.5</v>
       </c>
       <c r="K56" s="22">
@@ -10051,8 +10227,11 @@
       <c r="N56" s="30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10080,7 +10259,7 @@
       <c r="I57" s="22">
         <v>0.15</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="28">
         <v>0.1</v>
       </c>
       <c r="K57" s="22">
@@ -10095,8 +10274,11 @@
       <c r="N57" s="30">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10121,7 +10303,7 @@
       <c r="I58" s="22">
         <v>2</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="28">
         <v>5</v>
       </c>
       <c r="K58" s="22">
@@ -10136,8 +10318,11 @@
       <c r="N58" s="30">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10165,7 +10350,7 @@
       <c r="I59" s="22">
         <v>0.45</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="28">
         <v>0.45</v>
       </c>
       <c r="K59" s="22">
@@ -10180,8 +10365,11 @@
       <c r="N59" s="30">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10209,7 +10397,7 @@
       <c r="I60" s="22">
         <v>0.5</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="28">
         <v>0.45</v>
       </c>
       <c r="K60" s="22">
@@ -10224,8 +10412,11 @@
       <c r="N60" s="30">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10253,7 +10444,7 @@
       <c r="I61" s="22">
         <v>4</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="28">
         <v>4</v>
       </c>
       <c r="K61" s="22">
@@ -10268,8 +10459,11 @@
       <c r="N61" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -10277,12 +10471,13 @@
         <v>3</v>
       </c>
       <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="22"/>
       <c r="L62" s="19"/>
       <c r="M62" s="24"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="24"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -10307,7 +10502,7 @@
       <c r="I63" s="22">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="28">
         <v>0.6</v>
       </c>
       <c r="K63" s="22">
@@ -10322,8 +10517,11 @@
       <c r="N63" s="30">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -10348,7 +10546,7 @@
       <c r="I64" s="22">
         <v>0.92400000000000004</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="28">
         <v>1.2</v>
       </c>
       <c r="K64" s="22">
@@ -10363,8 +10561,11 @@
       <c r="N64" s="30">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -10389,7 +10590,7 @@
       <c r="I65" s="22">
         <v>0.32300000000000001</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J65" s="28">
         <v>0</v>
       </c>
       <c r="K65" s="22">
@@ -10404,8 +10605,11 @@
       <c r="N65" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -10433,7 +10637,7 @@
       <c r="I66" s="22">
         <v>0</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J66" s="28">
         <v>0</v>
       </c>
       <c r="K66" s="22">
@@ -10448,8 +10652,11 @@
       <c r="N66" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -10477,7 +10684,7 @@
       <c r="I67" s="22">
         <v>0</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J67" s="28">
         <v>0</v>
       </c>
       <c r="K67" s="22">
@@ -10492,8 +10699,11 @@
       <c r="N67" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -10521,7 +10731,7 @@
       <c r="I68" s="22">
         <v>0</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J68" s="28">
         <v>0</v>
       </c>
       <c r="K68" s="22">
@@ -10536,8 +10746,11 @@
       <c r="N68" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -10548,11 +10761,11 @@
         <v>0</v>
       </c>
       <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="J69" s="28"/>
       <c r="K69" s="22"/>
       <c r="L69" s="19"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10560,12 +10773,12 @@
         <v>0.93895242486246377</v>
       </c>
       <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="J70" s="28"/>
       <c r="K70" s="22"/>
       <c r="L70" s="19"/>
       <c r="N70" s="30"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10573,12 +10786,13 @@
         <v>0.5812155</v>
       </c>
       <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
+      <c r="J71" s="28"/>
       <c r="K71" s="22"/>
       <c r="L71" s="19"/>
       <c r="M71" s="24"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="24"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10586,11 +10800,11 @@
         <v>0</v>
       </c>
       <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+      <c r="J72" s="28"/>
       <c r="K72" s="22"/>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10598,11 +10812,11 @@
         <v>0</v>
       </c>
       <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="J73" s="28"/>
       <c r="K73" s="22"/>
       <c r="L73" s="19"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10610,12 +10824,12 @@
         <v>0</v>
       </c>
       <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="J74" s="28"/>
       <c r="K74" s="22"/>
       <c r="L74" s="19"/>
       <c r="N74" s="30"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10623,11 +10837,11 @@
         <v>6.2690037344620873</v>
       </c>
       <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="J75" s="28"/>
       <c r="K75" s="22"/>
       <c r="L75" s="19"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10635,11 +10849,11 @@
         <v>0.18916359999999999</v>
       </c>
       <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
+      <c r="J76" s="28"/>
       <c r="K76" s="22"/>
       <c r="L76" s="19"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10647,11 +10861,11 @@
         <v>0</v>
       </c>
       <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="J77" s="28"/>
       <c r="K77" s="22"/>
       <c r="L77" s="19"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10659,12 +10873,12 @@
         <v>0</v>
       </c>
       <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="22"/>
       <c r="L78" s="19"/>
       <c r="N78" s="30"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10672,12 +10886,13 @@
         <v>0.6551283</v>
       </c>
       <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="J79" s="28"/>
       <c r="K79" s="22"/>
       <c r="L79" s="19"/>
       <c r="M79" s="24"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="24"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -10705,7 +10920,7 @@
       <c r="I80" s="22">
         <v>-90</v>
       </c>
-      <c r="J80" s="22">
+      <c r="J80" s="28">
         <v>-90</v>
       </c>
       <c r="K80" s="22">
@@ -10720,8 +10935,11 @@
       <c r="N80">
         <v>-60</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="24">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -10749,7 +10967,7 @@
       <c r="I81" s="22">
         <v>0.8</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J81" s="28">
         <v>0.8</v>
       </c>
       <c r="K81" s="22">
@@ -10764,8 +10982,11 @@
       <c r="N81">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -10793,7 +11014,7 @@
       <c r="I82" s="22">
         <v>24</v>
       </c>
-      <c r="J82" s="22">
+      <c r="J82" s="28">
         <v>24</v>
       </c>
       <c r="K82" s="22">
@@ -10808,8 +11029,11 @@
       <c r="N82">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -10837,7 +11061,7 @@
       <c r="I83" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J83" s="22">
+      <c r="J83" s="28">
         <v>2.2999999999999998</v>
       </c>
       <c r="K83" s="22">
@@ -10852,12 +11076,16 @@
       <c r="N83">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
+      <c r="O83" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I84" s="22"/>
+      <c r="J84" s="28"/>
       <c r="K84" s="20"/>
       <c r="M84" s="28"/>
+      <c r="O84" s="28"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>

--- a/data/input/data.input2.xlsx
+++ b/data/input/data.input2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3PG\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C07319-CE98-4906-ADFD-3F078B9DFCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31058F4E-6162-4957-9D36-CCE5D82438CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="675" windowWidth="38700" windowHeight="19650" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView minimized="1" xWindow="13605" yWindow="630" windowWidth="28770" windowHeight="17370" activeTab="8" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="site" sheetId="2" r:id="rId1"/>
@@ -992,21 +992,20 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="18"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1165,15 +1164,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,13 +1180,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7819,7 +7818,7 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7831,56 +7830,57 @@
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="32" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7909,25 +7909,25 @@
       <c r="H2">
         <v>0.61</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="19">
         <v>0.61</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="24">
         <v>1.53</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="19">
         <v>1.53</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="17">
         <v>1.53</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="20">
         <v>1.53</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="25">
         <v>1.53</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="20">
         <v>1.53</v>
       </c>
     </row>
@@ -7956,25 +7956,25 @@
       <c r="H3">
         <v>0.22</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="19">
         <v>0.22</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="20">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -8003,25 +8003,25 @@
       <c r="H4">
         <v>0.1084</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <v>0.1084</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="24">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="19">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="17">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="25">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="20">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
@@ -8050,25 +8050,25 @@
       <c r="H5">
         <v>2.19</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <v>2.19</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="24">
         <v>3.282</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="19">
         <v>3.282</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="17">
         <v>3.282</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="20">
         <v>3.282</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="25">
         <v>3.282</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="20">
         <v>3.282</v>
       </c>
     </row>
@@ -8097,25 +8097,25 @@
       <c r="H6">
         <v>0.8</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>0.8</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="24">
         <v>0.8</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="19">
         <v>0.8</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>0.8</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="20">
         <v>0.8</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="25">
         <v>0.8</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="20">
         <v>0.8</v>
       </c>
     </row>
@@ -8144,25 +8144,25 @@
       <c r="H7">
         <v>0.25</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>0.25</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="24">
         <v>0.25</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="19">
         <v>0.25</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="17">
         <v>0.25</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="20">
         <v>0.25</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="25">
         <v>0.25</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="20">
         <v>0.25</v>
       </c>
     </row>
@@ -8191,25 +8191,25 @@
       <c r="H8">
         <v>1.04E-2</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>1.04E-2</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -8238,25 +8238,25 @@
       <c r="H9">
         <v>1E-3</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>1E-3</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="24">
         <v>0.01</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="19">
         <v>0.01</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>0.01</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="20">
         <v>0.01</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="25">
         <v>0.01</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="20">
         <v>0.01</v>
       </c>
     </row>
@@ -8285,25 +8285,25 @@
       <c r="H10">
         <v>36</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <v>36</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="24">
         <v>36</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="19">
         <v>36</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="17">
         <v>120</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="21">
         <v>36</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="25">
         <v>120</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="21">
         <v>36</v>
       </c>
     </row>
@@ -8332,25 +8332,25 @@
       <c r="H11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -8361,19 +8361,19 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8382,19 +8382,19 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -8421,25 +8421,25 @@
       <c r="H14">
         <v>-2</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>-2</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="24">
         <v>-7</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="19">
         <v>-7</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>38</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="20">
         <v>-7</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="25">
         <v>-7</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="20">
         <v>-7</v>
       </c>
     </row>
@@ -8468,25 +8468,25 @@
       <c r="H15">
         <v>15</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>15</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="24">
         <v>15</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="19">
         <v>15</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>39</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="20">
         <v>15</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="25">
         <v>15</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="20">
         <v>15</v>
       </c>
     </row>
@@ -8515,25 +8515,25 @@
       <c r="H16">
         <v>35</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>35</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="24">
         <v>30</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="19">
         <v>30</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>40</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="20">
         <v>30</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="25">
         <v>30</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="20">
         <v>30</v>
       </c>
     </row>
@@ -8562,25 +8562,25 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>1</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="24">
         <v>1</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="19">
         <v>1</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="17">
         <v>1</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="21">
         <v>1</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="25">
         <v>1</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="21">
         <v>1</v>
       </c>
     </row>
@@ -8609,25 +8609,25 @@
       <c r="H18">
         <v>0.7</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <v>0.7</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="24">
         <v>0.7</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="19">
         <v>0.7</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="17">
         <v>0.6</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="20">
         <v>0.7</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="25">
         <v>0.6</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="20">
         <v>0.7</v>
       </c>
     </row>
@@ -8656,25 +8656,25 @@
       <c r="H19">
         <v>9</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>9</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="24">
         <v>9</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="19">
         <v>9</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="17">
         <v>2</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="20">
         <v>9</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="25">
         <v>2</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="20">
         <v>9</v>
       </c>
     </row>
@@ -8700,25 +8700,25 @@
       <c r="H20">
         <v>1.4</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>1.4</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="24">
         <v>1.4</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="19">
         <v>1.4</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="17">
         <v>1.4</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="20">
         <v>1.4</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="25">
         <v>1.4</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="20">
         <v>1.4</v>
       </c>
     </row>
@@ -8744,25 +8744,25 @@
       <c r="H21">
         <v>0.7</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>0.7</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="24">
         <v>0.7</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="19">
         <v>0.7</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="17">
         <v>0.7</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="20">
         <v>0.7</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="25">
         <v>0.7</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="20">
         <v>0.7</v>
       </c>
     </row>
@@ -8791,25 +8791,25 @@
       <c r="H22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L22" s="19">
-        <v>0</v>
-      </c>
-      <c r="M22" s="26">
-        <v>0</v>
-      </c>
-      <c r="N22" s="30">
-        <v>0</v>
-      </c>
-      <c r="O22" s="26">
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8838,25 +8838,25 @@
       <c r="H23">
         <v>0.5</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>0.5</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="24">
         <v>0.5</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="19">
         <v>0.5</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="17">
         <v>0.6</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="22">
         <v>1</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="25">
         <v>0.6</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="22">
         <v>1</v>
       </c>
     </row>
@@ -8885,25 +8885,25 @@
       <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="19">
         <v>0.5</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="24">
         <v>0.5</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="19">
         <v>0.5</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="17">
         <v>1</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="22">
         <v>1</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="25">
         <v>1</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="22">
         <v>1</v>
       </c>
     </row>
@@ -8932,25 +8932,25 @@
       <c r="H25">
         <v>200</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <v>200</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="24">
         <v>150</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="19">
         <v>150</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="17">
         <v>150</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="20">
         <v>150</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="25">
         <v>150</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="20">
         <v>150</v>
       </c>
     </row>
@@ -8979,25 +8979,25 @@
       <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <v>4</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="24">
         <v>4</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="19">
         <v>4</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="17">
         <v>4</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="20">
         <v>4</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="25">
         <v>4</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="20">
         <v>4</v>
       </c>
     </row>
@@ -9026,25 +9026,25 @@
       <c r="H27">
         <v>0.95</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <v>0.95</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="24">
         <v>0.95</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="19">
         <v>0.95</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="17">
         <v>0.95</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="20">
         <v>0.95</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="25">
         <v>0.95</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="20">
         <v>0.95</v>
       </c>
     </row>
@@ -9070,25 +9070,25 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="22">
-        <v>0</v>
-      </c>
-      <c r="L28" s="19">
-        <v>0</v>
-      </c>
-      <c r="M28" s="24">
-        <v>0</v>
-      </c>
-      <c r="N28" s="30">
-        <v>0</v>
-      </c>
-      <c r="O28" s="24">
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <v>0</v>
+      </c>
+      <c r="N28" s="25">
+        <v>0</v>
+      </c>
+      <c r="O28" s="20">
         <v>0</v>
       </c>
     </row>
@@ -9114,25 +9114,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="28">
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
-        <v>0</v>
-      </c>
-      <c r="L29" s="19">
-        <v>0</v>
-      </c>
-      <c r="M29" s="24">
-        <v>0</v>
-      </c>
-      <c r="N29" s="30">
-        <v>0</v>
-      </c>
-      <c r="O29" s="24">
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="24">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="20">
+        <v>0</v>
+      </c>
+      <c r="N29" s="25">
+        <v>0</v>
+      </c>
+      <c r="O29" s="20">
         <v>0</v>
       </c>
     </row>
@@ -9158,25 +9158,25 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="28">
-        <v>0</v>
-      </c>
-      <c r="K30" s="22">
-        <v>0</v>
-      </c>
-      <c r="L30" s="19">
-        <v>0</v>
-      </c>
-      <c r="M30" s="24">
-        <v>0</v>
-      </c>
-      <c r="N30" s="30">
-        <v>0</v>
-      </c>
-      <c r="O30" s="24">
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="20">
+        <v>0</v>
+      </c>
+      <c r="N30" s="25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="20">
         <v>0</v>
       </c>
     </row>
@@ -9202,25 +9202,25 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="19">
         <v>1</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="24">
         <v>1</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="19">
         <v>1</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="17">
         <v>1</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="20">
         <v>1</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="25">
         <v>1</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="20">
         <v>1</v>
       </c>
     </row>
@@ -9249,25 +9249,25 @@
       <c r="H32">
         <v>300</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="19">
         <v>300</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="24">
         <v>350</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="19">
         <v>500</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="17">
         <v>220</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M32" s="23">
         <v>220</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="25">
         <v>220</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O32" s="23">
         <v>220</v>
       </c>
     </row>
@@ -9296,25 +9296,25 @@
       <c r="H33">
         <v>1.5</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="19">
         <v>1.5</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="24">
         <v>1.5</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="19">
         <v>1.5</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="17">
         <v>1.5</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="20">
         <v>1.5</v>
       </c>
-      <c r="N33" s="30">
+      <c r="N33" s="25">
         <v>1.5</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="20">
         <v>1.5</v>
       </c>
     </row>
@@ -9343,25 +9343,25 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="28">
+      <c r="I34" s="19">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
         <v>1</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="19">
         <v>1</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="17">
         <v>1</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="20">
         <v>1</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="25">
         <v>1</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="20">
         <v>1</v>
       </c>
     </row>
@@ -9390,25 +9390,25 @@
       <c r="H35">
         <v>0.2</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="19">
         <v>0.2</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="24">
         <v>1</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="19">
         <v>1</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="17">
         <v>1</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="21">
         <v>1</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="25">
         <v>1</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="21">
         <v>1</v>
       </c>
     </row>
@@ -9437,25 +9437,25 @@
       <c r="H36">
         <v>0.2</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="19">
         <v>0.2</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="24">
         <v>1</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="19">
         <v>1</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="17">
         <v>1</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="21">
         <v>1</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N36" s="25">
         <v>1</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="21">
         <v>1</v>
       </c>
     </row>
@@ -9484,25 +9484,25 @@
       <c r="H37">
         <v>4</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="19">
         <v>4</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="24">
         <v>5.79</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="19">
         <v>5.6</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L37" s="17">
         <v>5.79</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="21">
         <v>5.79</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="25">
         <v>5.79</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="21">
         <v>5.79</v>
       </c>
     </row>
@@ -9531,25 +9531,25 @@
       <c r="H38">
         <v>4.8</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="19">
         <v>4.8</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="24">
         <v>3.1</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="19">
         <v>4</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="17">
         <v>3.1</v>
       </c>
-      <c r="M38" s="25">
+      <c r="M38" s="21">
         <v>3.1</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="25">
         <v>3.1</v>
       </c>
-      <c r="O38" s="25">
+      <c r="O38" s="21">
         <v>3.1</v>
       </c>
     </row>
@@ -9578,25 +9578,25 @@
       <c r="H39">
         <v>15</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="19">
         <v>15</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="24">
         <v>2</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="19">
         <v>2</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="17">
         <v>2</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="21">
         <v>2</v>
       </c>
-      <c r="N39" s="30">
+      <c r="N39" s="25">
         <v>2</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="21">
         <v>2</v>
       </c>
     </row>
@@ -9625,25 +9625,25 @@
       <c r="H40">
         <v>0.5</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="19">
         <v>0.5</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="24">
         <v>0.5</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="19">
         <v>0.5</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="17">
         <v>0.6</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="21">
         <v>0.6</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="25">
         <v>0.6</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="21">
         <v>0.6</v>
       </c>
     </row>
@@ -9672,25 +9672,25 @@
       <c r="H41">
         <v>18</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="19">
         <v>18</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="24">
         <v>20</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="19">
         <v>20</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="17">
         <v>20</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="20">
         <v>20</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="25">
         <v>20</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O41" s="20">
         <v>20</v>
       </c>
     </row>
@@ -9719,25 +9719,25 @@
       <c r="H42">
         <v>0.15</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="19">
         <v>0.15</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="24">
         <v>0.15</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="19">
         <v>0.15</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="17">
         <v>0.15</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="20">
         <v>0.15</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="25">
         <v>0.15</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="20">
         <v>0.15</v>
       </c>
     </row>
@@ -9766,25 +9766,25 @@
       <c r="H43">
         <v>5</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="19">
         <v>5</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="24">
         <v>5</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="19">
         <v>3.1</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="17">
         <v>3.1</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="20">
         <v>5</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="25">
         <v>3.1</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O43" s="20">
         <v>5</v>
       </c>
     </row>
@@ -9798,12 +9798,12 @@
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="24"/>
-      <c r="O44" s="24"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="20"/>
+      <c r="O44" s="20"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -9830,25 +9830,25 @@
       <c r="H45">
         <v>0.03</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="19">
         <v>0.03</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="24">
         <v>0.04</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="19">
         <v>0.04</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="17">
         <v>4.7E-2</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M45" s="21">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="25">
         <v>4.7E-2</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45" s="21">
         <v>0.04</v>
       </c>
     </row>
@@ -9877,25 +9877,25 @@
       <c r="H46">
         <v>0.47</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="19">
         <v>0.47</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="24">
         <v>0.47</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="19">
         <v>0.47</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="17">
         <v>0.47</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="20">
         <v>0.47</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="25">
         <v>0.47</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="20">
         <v>0.47</v>
       </c>
     </row>
@@ -9924,25 +9924,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="22">
-        <v>0</v>
-      </c>
-      <c r="J47" s="28">
-        <v>0</v>
-      </c>
-      <c r="K47" s="22">
-        <v>0</v>
-      </c>
-      <c r="L47" s="19">
-        <v>0</v>
-      </c>
-      <c r="M47" s="24">
-        <v>0</v>
-      </c>
-      <c r="N47" s="30">
-        <v>0</v>
-      </c>
-      <c r="O47" s="24">
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="24">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" s="20">
+        <v>0</v>
+      </c>
+      <c r="N47" s="25">
+        <v>0</v>
+      </c>
+      <c r="O47" s="20">
         <v>0</v>
       </c>
     </row>
@@ -9971,25 +9971,25 @@
       <c r="H48">
         <v>0.02</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="19">
         <v>0.02</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="24">
         <v>0.02</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="19">
         <v>0.02</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="17">
         <v>0.02</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="20">
         <v>0.02</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="25">
         <v>0.02</v>
       </c>
-      <c r="O48" s="24">
+      <c r="O48" s="20">
         <v>0.02</v>
       </c>
     </row>
@@ -10018,25 +10018,25 @@
       <c r="H49">
         <v>3.33</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="19">
         <v>3.33</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="24">
         <v>3</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="19">
         <v>3</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="17">
         <v>3</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="21">
         <v>3</v>
       </c>
-      <c r="N49" s="30">
+      <c r="N49" s="25">
         <v>3</v>
       </c>
-      <c r="O49" s="25">
+      <c r="O49" s="21">
         <v>3</v>
       </c>
     </row>
@@ -10065,25 +10065,25 @@
       <c r="H50">
         <v>0.05</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="19">
         <v>0.05</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="24">
         <v>5.5E-2</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="17">
         <v>5.5E-2</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="20">
         <v>5.5E-2</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="25">
         <v>5.5E-2</v>
       </c>
-      <c r="O50" s="24">
+      <c r="O50" s="20">
         <v>5.5E-2</v>
       </c>
     </row>
@@ -10112,25 +10112,25 @@
       <c r="H51">
         <v>0.2</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="19">
         <v>0.2</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="24">
         <v>0.2</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="19">
         <v>0.2</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="17">
         <v>0.2</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M51" s="20">
         <v>0.2</v>
       </c>
-      <c r="N51" s="30">
+      <c r="N51" s="25">
         <v>0.2</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O51" s="20">
         <v>0.2</v>
       </c>
     </row>
@@ -10141,10 +10141,10 @@
       <c r="B52">
         <v>0.66</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="17"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -10153,12 +10153,12 @@
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="24"/>
-      <c r="O53" s="24"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="20"/>
+      <c r="O53" s="20"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -10167,10 +10167,10 @@
       <c r="B54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -10179,10 +10179,10 @@
       <c r="B55">
         <v>27</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -10209,25 +10209,25 @@
       <c r="H56">
         <v>0.75</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="19">
         <v>0.75</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J56" s="24">
         <v>0.5</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="19">
         <v>0.5</v>
       </c>
-      <c r="L56" s="19">
+      <c r="L56" s="17">
         <v>0.5</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M56" s="20">
         <v>0.5</v>
       </c>
-      <c r="N56" s="30">
+      <c r="N56" s="25">
         <v>0.5</v>
       </c>
-      <c r="O56" s="24">
+      <c r="O56" s="20">
         <v>0.5</v>
       </c>
     </row>
@@ -10256,25 +10256,25 @@
       <c r="H57">
         <v>0.15</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="19">
         <v>0.15</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="24">
         <v>0.1</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="19">
         <v>0.1</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L57" s="17">
         <v>0.1</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="20">
         <v>0.1</v>
       </c>
-      <c r="N57" s="30">
+      <c r="N57" s="25">
         <v>0.1</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="20">
         <v>0.1</v>
       </c>
     </row>
@@ -10300,25 +10300,25 @@
       <c r="H58">
         <v>2</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="19">
         <v>2</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="24">
         <v>5</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="19">
         <v>5</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L58" s="17">
         <v>5</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M58" s="20">
         <v>5</v>
       </c>
-      <c r="N58" s="30">
+      <c r="N58" s="25">
         <v>5</v>
       </c>
-      <c r="O58" s="24">
+      <c r="O58" s="20">
         <v>5</v>
       </c>
     </row>
@@ -10347,25 +10347,25 @@
       <c r="H59">
         <v>0.45</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="19">
         <v>0.45</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="24">
         <v>0.45</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="19">
         <v>0.48</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L59" s="17">
         <v>0.48</v>
       </c>
-      <c r="M59" s="24">
+      <c r="M59" s="20">
         <v>0.45</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N59" s="25">
         <v>0.48</v>
       </c>
-      <c r="O59" s="24">
+      <c r="O59" s="20">
         <v>0.45</v>
       </c>
     </row>
@@ -10394,25 +10394,25 @@
       <c r="H60">
         <v>0.5</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="19">
         <v>0.5</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="24">
         <v>0.45</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="19">
         <v>0.48</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L60" s="17">
         <v>0.48</v>
       </c>
-      <c r="M60" s="24">
+      <c r="M60" s="20">
         <v>0.5</v>
       </c>
-      <c r="N60" s="30">
+      <c r="N60" s="25">
         <v>0.48</v>
       </c>
-      <c r="O60" s="24">
+      <c r="O60" s="20">
         <v>0.5</v>
       </c>
     </row>
@@ -10441,25 +10441,25 @@
       <c r="H61">
         <v>4</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="19">
         <v>4</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="24">
         <v>4</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="19">
         <v>4</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L61" s="17">
         <v>4</v>
       </c>
-      <c r="M61" s="24">
+      <c r="M61" s="20">
         <v>4</v>
       </c>
-      <c r="N61" s="30">
+      <c r="N61" s="25">
         <v>4</v>
       </c>
-      <c r="O61" s="24">
+      <c r="O61" s="20">
         <v>4</v>
       </c>
     </row>
@@ -10470,12 +10470,12 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="24"/>
-      <c r="O62" s="24"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="20"/>
+      <c r="O62" s="20"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -10499,25 +10499,25 @@
       <c r="H63">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="19">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="24">
         <v>0.6</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="19">
         <v>0.6</v>
       </c>
-      <c r="L63" s="19">
+      <c r="L63" s="17">
         <v>0.6</v>
       </c>
-      <c r="M63" s="24">
+      <c r="M63" s="20">
         <v>0.6</v>
       </c>
-      <c r="N63" s="30">
+      <c r="N63" s="25">
         <v>0.6</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O63" s="20">
         <v>0.6</v>
       </c>
     </row>
@@ -10543,25 +10543,25 @@
       <c r="H64">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="19">
         <v>0.92400000000000004</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="24">
         <v>1.2</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="19">
         <v>1.2</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L64" s="17">
         <v>1.2</v>
       </c>
-      <c r="M64" s="24">
+      <c r="M64" s="20">
         <v>1.2</v>
       </c>
-      <c r="N64" s="30">
+      <c r="N64" s="25">
         <v>1.2</v>
       </c>
-      <c r="O64" s="24">
+      <c r="O64" s="20">
         <v>1.2</v>
       </c>
     </row>
@@ -10587,25 +10587,25 @@
       <c r="H65">
         <v>0.32300000000000001</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="19">
         <v>0.32300000000000001</v>
       </c>
-      <c r="J65" s="28">
-        <v>0</v>
-      </c>
-      <c r="K65" s="22">
-        <v>0</v>
-      </c>
-      <c r="L65" s="19">
-        <v>0</v>
-      </c>
-      <c r="M65" s="24">
-        <v>0</v>
-      </c>
-      <c r="N65" s="30">
-        <v>0</v>
-      </c>
-      <c r="O65" s="24">
+      <c r="J65" s="24">
+        <v>0</v>
+      </c>
+      <c r="K65" s="19">
+        <v>0</v>
+      </c>
+      <c r="L65" s="17">
+        <v>0</v>
+      </c>
+      <c r="M65" s="20">
+        <v>0</v>
+      </c>
+      <c r="N65" s="25">
+        <v>0</v>
+      </c>
+      <c r="O65" s="20">
         <v>0</v>
       </c>
     </row>
@@ -10634,25 +10634,25 @@
       <c r="H66">
         <v>1.44E-2</v>
       </c>
-      <c r="I66" s="22">
-        <v>0</v>
-      </c>
-      <c r="J66" s="28">
-        <v>0</v>
-      </c>
-      <c r="K66" s="22">
-        <v>0</v>
-      </c>
-      <c r="L66" s="19">
-        <v>0</v>
-      </c>
-      <c r="M66" s="24">
-        <v>0</v>
-      </c>
-      <c r="N66" s="30">
-        <v>0</v>
-      </c>
-      <c r="O66" s="24">
+      <c r="I66" s="19">
+        <v>0</v>
+      </c>
+      <c r="J66" s="24">
+        <v>0</v>
+      </c>
+      <c r="K66" s="19">
+        <v>0</v>
+      </c>
+      <c r="L66" s="17">
+        <v>0</v>
+      </c>
+      <c r="M66" s="20">
+        <v>0</v>
+      </c>
+      <c r="N66" s="25">
+        <v>0</v>
+      </c>
+      <c r="O66" s="20">
         <v>0</v>
       </c>
     </row>
@@ -10681,25 +10681,25 @@
       <c r="H67">
         <v>2.5430000000000001</v>
       </c>
-      <c r="I67" s="22">
-        <v>0</v>
-      </c>
-      <c r="J67" s="28">
-        <v>0</v>
-      </c>
-      <c r="K67" s="22">
-        <v>0</v>
-      </c>
-      <c r="L67" s="19">
-        <v>0</v>
-      </c>
-      <c r="M67" s="24">
-        <v>0</v>
-      </c>
-      <c r="N67" s="30">
-        <v>0</v>
-      </c>
-      <c r="O67" s="24">
+      <c r="I67" s="19">
+        <v>0</v>
+      </c>
+      <c r="J67" s="24">
+        <v>0</v>
+      </c>
+      <c r="K67" s="19">
+        <v>0</v>
+      </c>
+      <c r="L67" s="17">
+        <v>0</v>
+      </c>
+      <c r="M67" s="20">
+        <v>0</v>
+      </c>
+      <c r="N67" s="25">
+        <v>0</v>
+      </c>
+      <c r="O67" s="20">
         <v>0</v>
       </c>
     </row>
@@ -10728,25 +10728,25 @@
       <c r="H68">
         <v>0.16889999999999999</v>
       </c>
-      <c r="I68" s="22">
-        <v>0</v>
-      </c>
-      <c r="J68" s="28">
-        <v>0</v>
-      </c>
-      <c r="K68" s="22">
-        <v>0</v>
-      </c>
-      <c r="L68" s="19">
-        <v>0</v>
-      </c>
-      <c r="M68" s="24">
-        <v>0</v>
-      </c>
-      <c r="N68" s="30">
-        <v>0</v>
-      </c>
-      <c r="O68" s="24">
+      <c r="I68" s="19">
+        <v>0</v>
+      </c>
+      <c r="J68" s="24">
+        <v>0</v>
+      </c>
+      <c r="K68" s="19">
+        <v>0</v>
+      </c>
+      <c r="L68" s="17">
+        <v>0</v>
+      </c>
+      <c r="M68" s="20">
+        <v>0</v>
+      </c>
+      <c r="N68" s="25">
+        <v>0</v>
+      </c>
+      <c r="O68" s="20">
         <v>0</v>
       </c>
     </row>
@@ -10760,10 +10760,10 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -10772,11 +10772,11 @@
       <c r="B70">
         <v>0.93895242486246377</v>
       </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="19"/>
-      <c r="N70" s="30"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="17"/>
+      <c r="N70" s="25"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -10785,12 +10785,12 @@
       <c r="B71">
         <v>0.5812155</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="24"/>
-      <c r="O71" s="24"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="20"/>
+      <c r="O71" s="20"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -10799,10 +10799,10 @@
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -10811,10 +10811,10 @@
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="I73" s="22"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="17"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -10823,11 +10823,11 @@
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="I74" s="22"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="19"/>
-      <c r="N74" s="30"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="17"/>
+      <c r="N74" s="25"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -10836,10 +10836,10 @@
       <c r="B75">
         <v>6.2690037344620873</v>
       </c>
-      <c r="I75" s="22"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="17"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -10848,10 +10848,10 @@
       <c r="B76">
         <v>0.18916359999999999</v>
       </c>
-      <c r="I76" s="22"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="17"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -10860,10 +10860,10 @@
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="17"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -10872,11 +10872,11 @@
       <c r="B78">
         <v>0</v>
       </c>
-      <c r="I78" s="22"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="19"/>
-      <c r="N78" s="30"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="17"/>
+      <c r="N78" s="25"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -10885,12 +10885,12 @@
       <c r="B79">
         <v>0.6551283</v>
       </c>
-      <c r="I79" s="22"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="24"/>
-      <c r="O79" s="24"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="20"/>
+      <c r="O79" s="20"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -10917,25 +10917,25 @@
       <c r="H80">
         <v>-90</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="19">
         <v>-90</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="24">
         <v>-90</v>
       </c>
-      <c r="K80" s="22">
+      <c r="K80" s="19">
         <v>-90</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="17">
         <v>-60</v>
       </c>
-      <c r="M80" s="24">
+      <c r="M80" s="20">
         <v>-90</v>
       </c>
       <c r="N80">
         <v>-60</v>
       </c>
-      <c r="O80" s="24">
+      <c r="O80" s="20">
         <v>-90</v>
       </c>
     </row>
@@ -10964,25 +10964,25 @@
       <c r="H81">
         <v>0.8</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="19">
         <v>0.8</v>
       </c>
-      <c r="J81" s="28">
+      <c r="J81" s="24">
         <v>0.8</v>
       </c>
-      <c r="K81" s="22">
+      <c r="K81" s="19">
         <v>0.8</v>
       </c>
-      <c r="L81" s="19">
+      <c r="L81" s="17">
         <v>0.6</v>
       </c>
-      <c r="M81" s="24">
+      <c r="M81" s="20">
         <v>0.8</v>
       </c>
       <c r="N81">
         <v>0.6</v>
       </c>
-      <c r="O81" s="24">
+      <c r="O81" s="20">
         <v>0.8</v>
       </c>
     </row>
@@ -11011,25 +11011,25 @@
       <c r="H82">
         <v>24</v>
       </c>
-      <c r="I82" s="22">
+      <c r="I82" s="19">
         <v>24</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J82" s="24">
         <v>24</v>
       </c>
-      <c r="K82" s="22">
+      <c r="K82" s="19">
         <v>24</v>
       </c>
-      <c r="L82" s="19">
+      <c r="L82" s="17">
         <v>24</v>
       </c>
-      <c r="M82" s="24">
+      <c r="M82" s="20">
         <v>24</v>
       </c>
       <c r="N82">
         <v>24</v>
       </c>
-      <c r="O82" s="24">
+      <c r="O82" s="20">
         <v>24</v>
       </c>
     </row>
@@ -11058,34 +11058,34 @@
       <c r="H83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I83" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J83" s="28">
+      <c r="J83" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K83" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L83" s="17">
         <v>1.95</v>
       </c>
-      <c r="M83" s="24">
+      <c r="M83" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="N83">
         <v>1.95</v>
       </c>
-      <c r="O83" s="24">
+      <c r="O83" s="20">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I84" s="22"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="20"/>
-      <c r="M84" s="28"/>
-      <c r="O84" s="28"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="18"/>
+      <c r="M84" s="24"/>
+      <c r="O84" s="24"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
